--- a/inputs/unreliable_stage2_mgs.xlsx
+++ b/inputs/unreliable_stage2_mgs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" state="visible" r:id="rId2"/>
@@ -3217,7 +3217,7 @@
   <dimension ref="B2:F20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+      <selection pane="topLeft" activeCell="A20" activeCellId="1" sqref="B47 A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3426,8 +3426,8 @@
   </sheetPr>
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D36" activeCellId="1" sqref="B47 D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3871,8 +3871,8 @@
   </sheetPr>
   <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B65" activeCellId="0" sqref="B65"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B47" activeCellId="0" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4393,7 +4393,7 @@
         <v>144</v>
       </c>
       <c r="B47" s="18" t="n">
-        <v>0.63</v>
+        <v>0.68</v>
       </c>
       <c r="C47" s="15" t="s">
         <v>145</v>
@@ -4917,7 +4917,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="1" sqref="B47 D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5072,7 +5072,7 @@
   <dimension ref="A1:AMI338"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="topLeft" activeCell="I1" activeCellId="1" sqref="B47 I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -30839,7 +30839,7 @@
   <dimension ref="A1:AMG36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+      <selection pane="topLeft" activeCell="C16" activeCellId="1" sqref="B47 C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/inputs/unreliable_stage2_mgs.xlsx
+++ b/inputs/unreliable_stage2_mgs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="501">
   <si>
     <t xml:space="preserve">Tool for optimizing and simulating off- and on-grid electrification solutions</t>
   </si>
@@ -1509,7 +1509,7 @@
     <t xml:space="preserve">number_of_equal_generators</t>
   </si>
   <si>
-    <t xml:space="preserve">2</t>
+    <t xml:space="preserve">1</t>
   </si>
   <si>
     <t xml:space="preserve">capacity_pcc_consumption_kW</t>
@@ -1519,9 +1519,6 @@
   </si>
   <si>
     <t xml:space="preserve">default</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
   </si>
   <si>
     <t xml:space="preserve">share_hybrid</t>
@@ -1849,12 +1846,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -2136,8 +2133,8 @@
   </sheetPr>
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2296,7 +2293,7 @@
         <v>44</v>
       </c>
       <c r="C17" s="18" t="n">
-        <v>7</v>
+        <v>365</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2581,8 +2578,8 @@
   </sheetPr>
   <dimension ref="A1:G93"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A65" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A94" activeCellId="0" sqref="A94"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2990,7 +2987,7 @@
         <v>134</v>
       </c>
       <c r="B37" s="18" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>113</v>
@@ -3301,7 +3298,7 @@
         <v>167</v>
       </c>
       <c r="B65" s="18" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="C65" s="15" t="s">
         <v>113</v>
@@ -3312,7 +3309,7 @@
         <v>168</v>
       </c>
       <c r="B66" s="18" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="C66" s="15" t="s">
         <v>91</v>
@@ -3790,7 +3787,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMI338"/>
+  <dimension ref="A1:AMI122"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L15" activeCellId="0" sqref="L15"/>
@@ -21321,3030 +21318,6 @@
         <v>481653.626668214</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0"/>
-      <c r="B123" s="0"/>
-      <c r="C123" s="0"/>
-      <c r="D123" s="0"/>
-      <c r="E123" s="0"/>
-      <c r="F123" s="0"/>
-      <c r="G123" s="0"/>
-      <c r="H123" s="0"/>
-      <c r="I123" s="0"/>
-      <c r="J123" s="0"/>
-      <c r="K123" s="0"/>
-      <c r="L123" s="0"/>
-    </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0"/>
-      <c r="B124" s="0"/>
-      <c r="C124" s="0"/>
-      <c r="D124" s="0"/>
-      <c r="E124" s="0"/>
-      <c r="F124" s="0"/>
-      <c r="G124" s="0"/>
-      <c r="H124" s="0"/>
-      <c r="I124" s="0"/>
-      <c r="J124" s="0"/>
-      <c r="K124" s="0"/>
-      <c r="L124" s="0"/>
-    </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0"/>
-      <c r="B125" s="0"/>
-      <c r="C125" s="0"/>
-      <c r="D125" s="0"/>
-      <c r="E125" s="0"/>
-      <c r="F125" s="0"/>
-      <c r="G125" s="0"/>
-      <c r="H125" s="0"/>
-      <c r="I125" s="0"/>
-      <c r="J125" s="0"/>
-      <c r="K125" s="0"/>
-      <c r="L125" s="0"/>
-    </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0"/>
-      <c r="B126" s="0"/>
-      <c r="C126" s="0"/>
-      <c r="D126" s="0"/>
-      <c r="E126" s="0"/>
-      <c r="F126" s="0"/>
-      <c r="G126" s="0"/>
-      <c r="H126" s="0"/>
-      <c r="I126" s="0"/>
-      <c r="J126" s="0"/>
-      <c r="K126" s="0"/>
-      <c r="L126" s="0"/>
-    </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0"/>
-      <c r="B127" s="0"/>
-      <c r="C127" s="0"/>
-      <c r="D127" s="0"/>
-      <c r="E127" s="0"/>
-      <c r="F127" s="0"/>
-      <c r="G127" s="0"/>
-      <c r="H127" s="0"/>
-      <c r="I127" s="0"/>
-      <c r="J127" s="0"/>
-      <c r="K127" s="0"/>
-      <c r="L127" s="0"/>
-    </row>
-    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0"/>
-      <c r="B128" s="0"/>
-      <c r="C128" s="0"/>
-      <c r="D128" s="0"/>
-      <c r="E128" s="0"/>
-      <c r="F128" s="0"/>
-      <c r="G128" s="0"/>
-      <c r="H128" s="0"/>
-      <c r="I128" s="0"/>
-      <c r="J128" s="0"/>
-      <c r="K128" s="0"/>
-      <c r="L128" s="0"/>
-    </row>
-    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0"/>
-      <c r="B129" s="0"/>
-      <c r="C129" s="0"/>
-      <c r="D129" s="0"/>
-      <c r="E129" s="0"/>
-      <c r="F129" s="0"/>
-      <c r="G129" s="0"/>
-      <c r="H129" s="0"/>
-      <c r="I129" s="0"/>
-      <c r="J129" s="0"/>
-      <c r="K129" s="0"/>
-      <c r="L129" s="0"/>
-    </row>
-    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0"/>
-      <c r="B130" s="0"/>
-      <c r="C130" s="0"/>
-      <c r="D130" s="0"/>
-      <c r="E130" s="0"/>
-      <c r="F130" s="0"/>
-      <c r="G130" s="0"/>
-      <c r="H130" s="0"/>
-      <c r="I130" s="0"/>
-      <c r="J130" s="0"/>
-      <c r="K130" s="0"/>
-      <c r="L130" s="0"/>
-    </row>
-    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="0"/>
-      <c r="B131" s="0"/>
-      <c r="C131" s="0"/>
-      <c r="D131" s="0"/>
-      <c r="E131" s="0"/>
-      <c r="F131" s="0"/>
-      <c r="G131" s="0"/>
-      <c r="H131" s="0"/>
-      <c r="I131" s="0"/>
-      <c r="J131" s="0"/>
-      <c r="K131" s="0"/>
-      <c r="L131" s="0"/>
-    </row>
-    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0"/>
-      <c r="B132" s="0"/>
-      <c r="C132" s="0"/>
-      <c r="D132" s="0"/>
-      <c r="E132" s="0"/>
-      <c r="F132" s="0"/>
-      <c r="G132" s="0"/>
-      <c r="H132" s="0"/>
-      <c r="I132" s="0"/>
-      <c r="J132" s="0"/>
-      <c r="K132" s="0"/>
-      <c r="L132" s="0"/>
-    </row>
-    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="0"/>
-      <c r="B133" s="0"/>
-      <c r="C133" s="0"/>
-      <c r="D133" s="0"/>
-      <c r="E133" s="0"/>
-      <c r="F133" s="0"/>
-      <c r="G133" s="0"/>
-      <c r="H133" s="0"/>
-      <c r="I133" s="0"/>
-      <c r="J133" s="0"/>
-      <c r="K133" s="0"/>
-      <c r="L133" s="0"/>
-    </row>
-    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="0"/>
-      <c r="B134" s="0"/>
-      <c r="C134" s="0"/>
-      <c r="D134" s="0"/>
-      <c r="E134" s="0"/>
-      <c r="F134" s="0"/>
-      <c r="G134" s="0"/>
-      <c r="H134" s="0"/>
-      <c r="I134" s="0"/>
-      <c r="J134" s="0"/>
-      <c r="K134" s="0"/>
-      <c r="L134" s="0"/>
-    </row>
-    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0"/>
-      <c r="B135" s="0"/>
-      <c r="C135" s="0"/>
-      <c r="D135" s="0"/>
-      <c r="E135" s="0"/>
-      <c r="F135" s="0"/>
-      <c r="G135" s="0"/>
-      <c r="H135" s="0"/>
-      <c r="I135" s="0"/>
-      <c r="J135" s="0"/>
-      <c r="K135" s="0"/>
-      <c r="L135" s="0"/>
-    </row>
-    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="0"/>
-      <c r="B136" s="0"/>
-      <c r="C136" s="0"/>
-      <c r="D136" s="0"/>
-      <c r="E136" s="0"/>
-      <c r="F136" s="0"/>
-      <c r="G136" s="0"/>
-      <c r="H136" s="0"/>
-      <c r="I136" s="0"/>
-      <c r="J136" s="0"/>
-      <c r="K136" s="0"/>
-      <c r="L136" s="0"/>
-    </row>
-    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="0"/>
-      <c r="B137" s="0"/>
-      <c r="C137" s="0"/>
-      <c r="D137" s="0"/>
-      <c r="E137" s="0"/>
-      <c r="F137" s="0"/>
-      <c r="G137" s="0"/>
-      <c r="H137" s="0"/>
-      <c r="I137" s="0"/>
-      <c r="J137" s="0"/>
-      <c r="K137" s="0"/>
-      <c r="L137" s="0"/>
-    </row>
-    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="0"/>
-      <c r="B138" s="0"/>
-      <c r="C138" s="0"/>
-      <c r="D138" s="0"/>
-      <c r="E138" s="0"/>
-      <c r="F138" s="0"/>
-      <c r="G138" s="0"/>
-      <c r="H138" s="0"/>
-      <c r="I138" s="0"/>
-      <c r="J138" s="0"/>
-      <c r="K138" s="0"/>
-      <c r="L138" s="0"/>
-    </row>
-    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="0"/>
-      <c r="B139" s="0"/>
-      <c r="C139" s="0"/>
-      <c r="D139" s="0"/>
-      <c r="E139" s="0"/>
-      <c r="F139" s="0"/>
-      <c r="G139" s="0"/>
-      <c r="H139" s="0"/>
-      <c r="I139" s="0"/>
-      <c r="J139" s="0"/>
-      <c r="K139" s="0"/>
-      <c r="L139" s="0"/>
-    </row>
-    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="0"/>
-      <c r="B140" s="0"/>
-      <c r="C140" s="0"/>
-      <c r="D140" s="0"/>
-      <c r="E140" s="0"/>
-      <c r="F140" s="0"/>
-      <c r="G140" s="0"/>
-      <c r="H140" s="0"/>
-      <c r="I140" s="0"/>
-      <c r="J140" s="0"/>
-      <c r="K140" s="0"/>
-      <c r="L140" s="0"/>
-    </row>
-    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="0"/>
-      <c r="B141" s="0"/>
-      <c r="C141" s="0"/>
-      <c r="D141" s="0"/>
-      <c r="E141" s="0"/>
-      <c r="F141" s="0"/>
-      <c r="G141" s="0"/>
-      <c r="H141" s="0"/>
-      <c r="I141" s="0"/>
-      <c r="J141" s="0"/>
-      <c r="K141" s="0"/>
-      <c r="L141" s="0"/>
-    </row>
-    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="0"/>
-      <c r="B142" s="0"/>
-      <c r="C142" s="0"/>
-      <c r="D142" s="0"/>
-      <c r="E142" s="0"/>
-      <c r="F142" s="0"/>
-      <c r="G142" s="0"/>
-      <c r="H142" s="0"/>
-      <c r="I142" s="0"/>
-      <c r="J142" s="0"/>
-      <c r="K142" s="0"/>
-      <c r="L142" s="0"/>
-    </row>
-    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="0"/>
-      <c r="B143" s="0"/>
-      <c r="C143" s="0"/>
-      <c r="D143" s="0"/>
-      <c r="E143" s="0"/>
-      <c r="F143" s="0"/>
-      <c r="G143" s="0"/>
-      <c r="H143" s="0"/>
-      <c r="I143" s="0"/>
-      <c r="J143" s="0"/>
-      <c r="K143" s="0"/>
-      <c r="L143" s="0"/>
-    </row>
-    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="0"/>
-      <c r="B144" s="0"/>
-      <c r="C144" s="0"/>
-      <c r="D144" s="0"/>
-      <c r="E144" s="0"/>
-      <c r="F144" s="0"/>
-      <c r="G144" s="0"/>
-      <c r="H144" s="0"/>
-      <c r="I144" s="0"/>
-      <c r="J144" s="0"/>
-      <c r="K144" s="0"/>
-      <c r="L144" s="0"/>
-    </row>
-    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="0"/>
-      <c r="B145" s="0"/>
-      <c r="C145" s="0"/>
-      <c r="D145" s="0"/>
-      <c r="E145" s="0"/>
-      <c r="F145" s="0"/>
-      <c r="G145" s="0"/>
-      <c r="H145" s="0"/>
-      <c r="I145" s="0"/>
-      <c r="J145" s="0"/>
-      <c r="K145" s="0"/>
-      <c r="L145" s="0"/>
-    </row>
-    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="0"/>
-      <c r="B146" s="0"/>
-      <c r="C146" s="0"/>
-      <c r="D146" s="0"/>
-      <c r="E146" s="0"/>
-      <c r="F146" s="0"/>
-      <c r="G146" s="0"/>
-      <c r="H146" s="0"/>
-      <c r="I146" s="0"/>
-      <c r="J146" s="0"/>
-      <c r="K146" s="0"/>
-      <c r="L146" s="0"/>
-    </row>
-    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="0"/>
-      <c r="B147" s="0"/>
-      <c r="C147" s="0"/>
-      <c r="D147" s="0"/>
-      <c r="E147" s="0"/>
-      <c r="F147" s="0"/>
-      <c r="G147" s="0"/>
-      <c r="H147" s="0"/>
-      <c r="I147" s="0"/>
-      <c r="J147" s="0"/>
-      <c r="K147" s="0"/>
-      <c r="L147" s="0"/>
-    </row>
-    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="0"/>
-      <c r="B148" s="0"/>
-      <c r="C148" s="0"/>
-      <c r="D148" s="0"/>
-      <c r="E148" s="0"/>
-      <c r="F148" s="0"/>
-      <c r="G148" s="0"/>
-      <c r="H148" s="0"/>
-      <c r="I148" s="0"/>
-      <c r="J148" s="0"/>
-      <c r="K148" s="0"/>
-      <c r="L148" s="0"/>
-    </row>
-    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="0"/>
-      <c r="B149" s="0"/>
-      <c r="C149" s="0"/>
-      <c r="D149" s="0"/>
-      <c r="E149" s="0"/>
-      <c r="F149" s="0"/>
-      <c r="G149" s="0"/>
-      <c r="H149" s="0"/>
-      <c r="I149" s="0"/>
-      <c r="J149" s="0"/>
-      <c r="K149" s="0"/>
-      <c r="L149" s="0"/>
-    </row>
-    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="0"/>
-      <c r="B150" s="0"/>
-      <c r="C150" s="0"/>
-      <c r="D150" s="0"/>
-      <c r="E150" s="0"/>
-      <c r="F150" s="0"/>
-      <c r="G150" s="0"/>
-      <c r="H150" s="0"/>
-      <c r="I150" s="0"/>
-      <c r="J150" s="0"/>
-      <c r="K150" s="0"/>
-      <c r="L150" s="0"/>
-    </row>
-    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="0"/>
-      <c r="B151" s="0"/>
-      <c r="C151" s="0"/>
-      <c r="D151" s="0"/>
-      <c r="E151" s="0"/>
-      <c r="F151" s="0"/>
-      <c r="G151" s="0"/>
-      <c r="H151" s="0"/>
-      <c r="I151" s="0"/>
-      <c r="J151" s="0"/>
-      <c r="K151" s="0"/>
-      <c r="L151" s="0"/>
-    </row>
-    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="0"/>
-      <c r="B152" s="0"/>
-      <c r="C152" s="0"/>
-      <c r="D152" s="0"/>
-      <c r="E152" s="0"/>
-      <c r="F152" s="0"/>
-      <c r="G152" s="0"/>
-      <c r="H152" s="0"/>
-      <c r="I152" s="0"/>
-      <c r="J152" s="0"/>
-      <c r="K152" s="0"/>
-      <c r="L152" s="0"/>
-    </row>
-    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="0"/>
-      <c r="B153" s="0"/>
-      <c r="C153" s="0"/>
-      <c r="D153" s="0"/>
-      <c r="E153" s="0"/>
-      <c r="F153" s="0"/>
-      <c r="G153" s="0"/>
-      <c r="H153" s="0"/>
-      <c r="I153" s="0"/>
-      <c r="J153" s="0"/>
-      <c r="K153" s="0"/>
-      <c r="L153" s="0"/>
-    </row>
-    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="0"/>
-      <c r="B154" s="0"/>
-      <c r="C154" s="0"/>
-      <c r="D154" s="0"/>
-      <c r="E154" s="0"/>
-      <c r="F154" s="0"/>
-      <c r="G154" s="0"/>
-      <c r="H154" s="0"/>
-      <c r="I154" s="0"/>
-      <c r="J154" s="0"/>
-      <c r="K154" s="0"/>
-      <c r="L154" s="0"/>
-    </row>
-    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="0"/>
-      <c r="B155" s="0"/>
-      <c r="C155" s="0"/>
-      <c r="D155" s="0"/>
-      <c r="E155" s="0"/>
-      <c r="F155" s="0"/>
-      <c r="G155" s="0"/>
-      <c r="H155" s="0"/>
-      <c r="I155" s="0"/>
-      <c r="J155" s="0"/>
-      <c r="K155" s="0"/>
-      <c r="L155" s="0"/>
-    </row>
-    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="0"/>
-      <c r="B156" s="0"/>
-      <c r="C156" s="0"/>
-      <c r="D156" s="0"/>
-      <c r="E156" s="0"/>
-      <c r="F156" s="0"/>
-      <c r="G156" s="0"/>
-      <c r="H156" s="0"/>
-      <c r="I156" s="0"/>
-      <c r="J156" s="0"/>
-      <c r="K156" s="0"/>
-      <c r="L156" s="0"/>
-    </row>
-    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="0"/>
-      <c r="B157" s="0"/>
-      <c r="C157" s="0"/>
-      <c r="D157" s="0"/>
-      <c r="E157" s="0"/>
-      <c r="F157" s="0"/>
-      <c r="G157" s="0"/>
-      <c r="H157" s="0"/>
-      <c r="I157" s="0"/>
-      <c r="J157" s="0"/>
-      <c r="K157" s="0"/>
-      <c r="L157" s="0"/>
-    </row>
-    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="0"/>
-      <c r="B158" s="0"/>
-      <c r="C158" s="0"/>
-      <c r="D158" s="0"/>
-      <c r="E158" s="0"/>
-      <c r="F158" s="0"/>
-      <c r="G158" s="0"/>
-      <c r="H158" s="0"/>
-      <c r="I158" s="0"/>
-      <c r="J158" s="0"/>
-      <c r="K158" s="0"/>
-      <c r="L158" s="0"/>
-    </row>
-    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="0"/>
-      <c r="B159" s="0"/>
-      <c r="C159" s="0"/>
-      <c r="D159" s="0"/>
-      <c r="E159" s="0"/>
-      <c r="F159" s="0"/>
-      <c r="G159" s="0"/>
-      <c r="H159" s="0"/>
-      <c r="I159" s="0"/>
-      <c r="J159" s="0"/>
-      <c r="K159" s="0"/>
-      <c r="L159" s="0"/>
-    </row>
-    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="0"/>
-      <c r="B160" s="0"/>
-      <c r="C160" s="0"/>
-      <c r="D160" s="0"/>
-      <c r="E160" s="0"/>
-      <c r="F160" s="0"/>
-      <c r="G160" s="0"/>
-      <c r="H160" s="0"/>
-      <c r="I160" s="0"/>
-      <c r="J160" s="0"/>
-      <c r="K160" s="0"/>
-      <c r="L160" s="0"/>
-    </row>
-    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="0"/>
-      <c r="B161" s="0"/>
-      <c r="C161" s="0"/>
-      <c r="D161" s="0"/>
-      <c r="E161" s="0"/>
-      <c r="F161" s="0"/>
-      <c r="G161" s="0"/>
-      <c r="H161" s="0"/>
-      <c r="I161" s="0"/>
-      <c r="J161" s="0"/>
-      <c r="K161" s="0"/>
-      <c r="L161" s="0"/>
-    </row>
-    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="0"/>
-      <c r="B162" s="0"/>
-      <c r="C162" s="0"/>
-      <c r="D162" s="0"/>
-      <c r="E162" s="0"/>
-      <c r="F162" s="0"/>
-      <c r="G162" s="0"/>
-      <c r="H162" s="0"/>
-      <c r="I162" s="0"/>
-      <c r="J162" s="0"/>
-      <c r="K162" s="0"/>
-      <c r="L162" s="0"/>
-    </row>
-    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="0"/>
-      <c r="B163" s="0"/>
-      <c r="C163" s="0"/>
-      <c r="D163" s="0"/>
-      <c r="E163" s="0"/>
-      <c r="F163" s="0"/>
-      <c r="G163" s="0"/>
-      <c r="H163" s="0"/>
-      <c r="I163" s="0"/>
-      <c r="J163" s="0"/>
-      <c r="K163" s="0"/>
-      <c r="L163" s="0"/>
-    </row>
-    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="0"/>
-      <c r="B164" s="0"/>
-      <c r="C164" s="0"/>
-      <c r="D164" s="0"/>
-      <c r="E164" s="0"/>
-      <c r="F164" s="0"/>
-      <c r="G164" s="0"/>
-      <c r="H164" s="0"/>
-      <c r="I164" s="0"/>
-      <c r="J164" s="0"/>
-      <c r="K164" s="0"/>
-      <c r="L164" s="0"/>
-    </row>
-    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="0"/>
-      <c r="B165" s="0"/>
-      <c r="C165" s="0"/>
-      <c r="D165" s="0"/>
-      <c r="E165" s="0"/>
-      <c r="F165" s="0"/>
-      <c r="G165" s="0"/>
-      <c r="H165" s="0"/>
-      <c r="I165" s="0"/>
-      <c r="J165" s="0"/>
-      <c r="K165" s="0"/>
-      <c r="L165" s="0"/>
-    </row>
-    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="0"/>
-      <c r="B166" s="0"/>
-      <c r="C166" s="0"/>
-      <c r="D166" s="0"/>
-      <c r="E166" s="0"/>
-      <c r="F166" s="0"/>
-      <c r="G166" s="0"/>
-      <c r="H166" s="0"/>
-      <c r="I166" s="0"/>
-      <c r="J166" s="0"/>
-      <c r="K166" s="0"/>
-      <c r="L166" s="0"/>
-    </row>
-    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="0"/>
-      <c r="B167" s="0"/>
-      <c r="C167" s="0"/>
-      <c r="D167" s="0"/>
-      <c r="E167" s="0"/>
-      <c r="F167" s="0"/>
-      <c r="G167" s="0"/>
-      <c r="H167" s="0"/>
-      <c r="I167" s="0"/>
-      <c r="J167" s="0"/>
-      <c r="K167" s="0"/>
-      <c r="L167" s="0"/>
-    </row>
-    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="0"/>
-      <c r="B168" s="0"/>
-      <c r="C168" s="0"/>
-      <c r="D168" s="0"/>
-      <c r="E168" s="0"/>
-      <c r="F168" s="0"/>
-      <c r="G168" s="0"/>
-      <c r="H168" s="0"/>
-      <c r="I168" s="0"/>
-      <c r="J168" s="0"/>
-      <c r="K168" s="0"/>
-      <c r="L168" s="0"/>
-    </row>
-    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="0"/>
-      <c r="B169" s="0"/>
-      <c r="C169" s="0"/>
-      <c r="D169" s="0"/>
-      <c r="E169" s="0"/>
-      <c r="F169" s="0"/>
-      <c r="G169" s="0"/>
-      <c r="H169" s="0"/>
-      <c r="I169" s="0"/>
-      <c r="J169" s="0"/>
-      <c r="K169" s="0"/>
-      <c r="L169" s="0"/>
-    </row>
-    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="0"/>
-      <c r="B170" s="0"/>
-      <c r="C170" s="0"/>
-      <c r="D170" s="0"/>
-      <c r="E170" s="0"/>
-      <c r="F170" s="0"/>
-      <c r="G170" s="0"/>
-      <c r="H170" s="0"/>
-      <c r="I170" s="0"/>
-      <c r="J170" s="0"/>
-      <c r="K170" s="0"/>
-      <c r="L170" s="0"/>
-    </row>
-    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="0"/>
-      <c r="B171" s="0"/>
-      <c r="C171" s="0"/>
-      <c r="D171" s="0"/>
-      <c r="E171" s="0"/>
-      <c r="F171" s="0"/>
-      <c r="G171" s="0"/>
-      <c r="H171" s="0"/>
-      <c r="I171" s="0"/>
-      <c r="J171" s="0"/>
-      <c r="K171" s="0"/>
-      <c r="L171" s="0"/>
-    </row>
-    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="0"/>
-      <c r="B172" s="0"/>
-      <c r="C172" s="0"/>
-      <c r="D172" s="0"/>
-      <c r="E172" s="0"/>
-      <c r="F172" s="0"/>
-      <c r="G172" s="0"/>
-      <c r="H172" s="0"/>
-      <c r="I172" s="0"/>
-      <c r="J172" s="0"/>
-      <c r="K172" s="0"/>
-      <c r="L172" s="0"/>
-    </row>
-    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="0"/>
-      <c r="B173" s="0"/>
-      <c r="C173" s="0"/>
-      <c r="D173" s="0"/>
-      <c r="E173" s="0"/>
-      <c r="F173" s="0"/>
-      <c r="G173" s="0"/>
-      <c r="H173" s="0"/>
-      <c r="I173" s="0"/>
-      <c r="J173" s="0"/>
-      <c r="K173" s="0"/>
-      <c r="L173" s="0"/>
-    </row>
-    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="0"/>
-      <c r="B174" s="0"/>
-      <c r="C174" s="0"/>
-      <c r="D174" s="0"/>
-      <c r="E174" s="0"/>
-      <c r="F174" s="0"/>
-      <c r="G174" s="0"/>
-      <c r="H174" s="0"/>
-      <c r="I174" s="0"/>
-      <c r="J174" s="0"/>
-      <c r="K174" s="0"/>
-      <c r="L174" s="0"/>
-    </row>
-    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="0"/>
-      <c r="B175" s="0"/>
-      <c r="C175" s="0"/>
-      <c r="D175" s="0"/>
-      <c r="E175" s="0"/>
-      <c r="F175" s="0"/>
-      <c r="G175" s="0"/>
-      <c r="H175" s="0"/>
-      <c r="I175" s="0"/>
-      <c r="J175" s="0"/>
-      <c r="K175" s="0"/>
-      <c r="L175" s="0"/>
-    </row>
-    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="0"/>
-      <c r="B176" s="0"/>
-      <c r="C176" s="0"/>
-      <c r="D176" s="0"/>
-      <c r="E176" s="0"/>
-      <c r="F176" s="0"/>
-      <c r="G176" s="0"/>
-      <c r="H176" s="0"/>
-      <c r="I176" s="0"/>
-      <c r="J176" s="0"/>
-      <c r="K176" s="0"/>
-      <c r="L176" s="0"/>
-    </row>
-    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="0"/>
-      <c r="B177" s="0"/>
-      <c r="C177" s="0"/>
-      <c r="D177" s="0"/>
-      <c r="E177" s="0"/>
-      <c r="F177" s="0"/>
-      <c r="G177" s="0"/>
-      <c r="H177" s="0"/>
-      <c r="I177" s="0"/>
-      <c r="J177" s="0"/>
-      <c r="K177" s="0"/>
-      <c r="L177" s="0"/>
-    </row>
-    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="0"/>
-      <c r="B178" s="0"/>
-      <c r="C178" s="0"/>
-      <c r="D178" s="0"/>
-      <c r="E178" s="0"/>
-      <c r="F178" s="0"/>
-      <c r="G178" s="0"/>
-      <c r="H178" s="0"/>
-      <c r="I178" s="0"/>
-      <c r="J178" s="0"/>
-      <c r="K178" s="0"/>
-      <c r="L178" s="0"/>
-    </row>
-    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="0"/>
-      <c r="B179" s="0"/>
-      <c r="C179" s="0"/>
-      <c r="D179" s="0"/>
-      <c r="E179" s="0"/>
-      <c r="F179" s="0"/>
-      <c r="G179" s="0"/>
-      <c r="H179" s="0"/>
-      <c r="I179" s="0"/>
-      <c r="J179" s="0"/>
-      <c r="K179" s="0"/>
-      <c r="L179" s="0"/>
-    </row>
-    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="0"/>
-      <c r="B180" s="0"/>
-      <c r="C180" s="0"/>
-      <c r="D180" s="0"/>
-      <c r="E180" s="0"/>
-      <c r="F180" s="0"/>
-      <c r="G180" s="0"/>
-      <c r="H180" s="0"/>
-      <c r="I180" s="0"/>
-      <c r="J180" s="0"/>
-      <c r="K180" s="0"/>
-      <c r="L180" s="0"/>
-    </row>
-    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="0"/>
-      <c r="B181" s="0"/>
-      <c r="C181" s="0"/>
-      <c r="D181" s="0"/>
-      <c r="E181" s="0"/>
-      <c r="F181" s="0"/>
-      <c r="G181" s="0"/>
-      <c r="H181" s="0"/>
-      <c r="I181" s="0"/>
-      <c r="J181" s="0"/>
-      <c r="K181" s="0"/>
-      <c r="L181" s="0"/>
-    </row>
-    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="0"/>
-      <c r="B182" s="0"/>
-      <c r="C182" s="0"/>
-      <c r="D182" s="0"/>
-      <c r="E182" s="0"/>
-      <c r="F182" s="0"/>
-      <c r="G182" s="0"/>
-      <c r="H182" s="0"/>
-      <c r="I182" s="0"/>
-      <c r="J182" s="0"/>
-      <c r="K182" s="0"/>
-      <c r="L182" s="0"/>
-    </row>
-    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="0"/>
-      <c r="B183" s="0"/>
-      <c r="C183" s="0"/>
-      <c r="D183" s="0"/>
-      <c r="E183" s="0"/>
-      <c r="F183" s="0"/>
-      <c r="G183" s="0"/>
-      <c r="H183" s="0"/>
-      <c r="I183" s="0"/>
-      <c r="J183" s="0"/>
-      <c r="K183" s="0"/>
-      <c r="L183" s="0"/>
-    </row>
-    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="0"/>
-      <c r="B184" s="0"/>
-      <c r="C184" s="0"/>
-      <c r="D184" s="0"/>
-      <c r="E184" s="0"/>
-      <c r="F184" s="0"/>
-      <c r="G184" s="0"/>
-      <c r="H184" s="0"/>
-      <c r="I184" s="0"/>
-      <c r="J184" s="0"/>
-      <c r="K184" s="0"/>
-      <c r="L184" s="0"/>
-    </row>
-    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="0"/>
-      <c r="B185" s="0"/>
-      <c r="C185" s="0"/>
-      <c r="D185" s="0"/>
-      <c r="E185" s="0"/>
-      <c r="F185" s="0"/>
-      <c r="G185" s="0"/>
-      <c r="H185" s="0"/>
-      <c r="I185" s="0"/>
-      <c r="J185" s="0"/>
-      <c r="K185" s="0"/>
-      <c r="L185" s="0"/>
-    </row>
-    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="0"/>
-      <c r="B186" s="0"/>
-      <c r="C186" s="0"/>
-      <c r="D186" s="0"/>
-      <c r="E186" s="0"/>
-      <c r="F186" s="0"/>
-      <c r="G186" s="0"/>
-      <c r="H186" s="0"/>
-      <c r="I186" s="0"/>
-      <c r="J186" s="0"/>
-      <c r="K186" s="0"/>
-      <c r="L186" s="0"/>
-    </row>
-    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="0"/>
-      <c r="B187" s="0"/>
-      <c r="C187" s="0"/>
-      <c r="D187" s="0"/>
-      <c r="E187" s="0"/>
-      <c r="F187" s="0"/>
-      <c r="G187" s="0"/>
-      <c r="H187" s="0"/>
-      <c r="I187" s="0"/>
-      <c r="J187" s="0"/>
-      <c r="K187" s="0"/>
-      <c r="L187" s="0"/>
-    </row>
-    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="0"/>
-      <c r="B188" s="0"/>
-      <c r="C188" s="0"/>
-      <c r="D188" s="0"/>
-      <c r="E188" s="0"/>
-      <c r="F188" s="0"/>
-      <c r="G188" s="0"/>
-      <c r="H188" s="0"/>
-      <c r="I188" s="0"/>
-      <c r="J188" s="0"/>
-      <c r="K188" s="0"/>
-      <c r="L188" s="0"/>
-    </row>
-    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="0"/>
-      <c r="B189" s="0"/>
-      <c r="C189" s="0"/>
-      <c r="D189" s="0"/>
-      <c r="E189" s="0"/>
-      <c r="F189" s="0"/>
-      <c r="G189" s="0"/>
-      <c r="H189" s="0"/>
-      <c r="I189" s="0"/>
-      <c r="J189" s="0"/>
-      <c r="K189" s="0"/>
-      <c r="L189" s="0"/>
-    </row>
-    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="0"/>
-      <c r="B190" s="0"/>
-      <c r="C190" s="0"/>
-      <c r="D190" s="0"/>
-      <c r="E190" s="0"/>
-      <c r="F190" s="0"/>
-      <c r="G190" s="0"/>
-      <c r="H190" s="0"/>
-      <c r="I190" s="0"/>
-      <c r="J190" s="0"/>
-      <c r="K190" s="0"/>
-      <c r="L190" s="0"/>
-    </row>
-    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="0"/>
-      <c r="B191" s="0"/>
-      <c r="C191" s="0"/>
-      <c r="D191" s="0"/>
-      <c r="E191" s="0"/>
-      <c r="F191" s="0"/>
-      <c r="G191" s="0"/>
-      <c r="H191" s="0"/>
-      <c r="I191" s="0"/>
-      <c r="J191" s="0"/>
-      <c r="K191" s="0"/>
-      <c r="L191" s="0"/>
-    </row>
-    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="0"/>
-      <c r="B192" s="0"/>
-      <c r="C192" s="0"/>
-      <c r="D192" s="0"/>
-      <c r="E192" s="0"/>
-      <c r="F192" s="0"/>
-      <c r="G192" s="0"/>
-      <c r="H192" s="0"/>
-      <c r="I192" s="0"/>
-      <c r="J192" s="0"/>
-      <c r="K192" s="0"/>
-      <c r="L192" s="0"/>
-    </row>
-    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="0"/>
-      <c r="B193" s="0"/>
-      <c r="C193" s="0"/>
-      <c r="D193" s="0"/>
-      <c r="E193" s="0"/>
-      <c r="F193" s="0"/>
-      <c r="G193" s="0"/>
-      <c r="H193" s="0"/>
-      <c r="I193" s="0"/>
-      <c r="J193" s="0"/>
-      <c r="K193" s="0"/>
-      <c r="L193" s="0"/>
-    </row>
-    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="0"/>
-      <c r="B194" s="0"/>
-      <c r="C194" s="0"/>
-      <c r="D194" s="0"/>
-      <c r="E194" s="0"/>
-      <c r="F194" s="0"/>
-      <c r="G194" s="0"/>
-      <c r="H194" s="0"/>
-      <c r="I194" s="0"/>
-      <c r="J194" s="0"/>
-      <c r="K194" s="0"/>
-      <c r="L194" s="0"/>
-    </row>
-    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="0"/>
-      <c r="B195" s="0"/>
-      <c r="C195" s="0"/>
-      <c r="D195" s="0"/>
-      <c r="E195" s="0"/>
-      <c r="F195" s="0"/>
-      <c r="G195" s="0"/>
-      <c r="H195" s="0"/>
-      <c r="I195" s="0"/>
-      <c r="J195" s="0"/>
-      <c r="K195" s="0"/>
-      <c r="L195" s="0"/>
-    </row>
-    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="0"/>
-      <c r="B196" s="0"/>
-      <c r="C196" s="0"/>
-      <c r="D196" s="0"/>
-      <c r="E196" s="0"/>
-      <c r="F196" s="0"/>
-      <c r="G196" s="0"/>
-      <c r="H196" s="0"/>
-      <c r="I196" s="0"/>
-      <c r="J196" s="0"/>
-      <c r="K196" s="0"/>
-      <c r="L196" s="0"/>
-    </row>
-    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="0"/>
-      <c r="B197" s="0"/>
-      <c r="C197" s="0"/>
-      <c r="D197" s="0"/>
-      <c r="E197" s="0"/>
-      <c r="F197" s="0"/>
-      <c r="G197" s="0"/>
-      <c r="H197" s="0"/>
-      <c r="I197" s="0"/>
-      <c r="J197" s="0"/>
-      <c r="K197" s="0"/>
-      <c r="L197" s="0"/>
-    </row>
-    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="0"/>
-      <c r="B198" s="0"/>
-      <c r="C198" s="0"/>
-      <c r="D198" s="0"/>
-      <c r="E198" s="0"/>
-      <c r="F198" s="0"/>
-      <c r="G198" s="0"/>
-      <c r="H198" s="0"/>
-      <c r="I198" s="0"/>
-      <c r="J198" s="0"/>
-      <c r="K198" s="0"/>
-      <c r="L198" s="0"/>
-    </row>
-    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="0"/>
-      <c r="B199" s="0"/>
-      <c r="C199" s="0"/>
-      <c r="D199" s="0"/>
-      <c r="E199" s="0"/>
-      <c r="F199" s="0"/>
-      <c r="G199" s="0"/>
-      <c r="H199" s="0"/>
-      <c r="I199" s="0"/>
-      <c r="J199" s="0"/>
-      <c r="K199" s="0"/>
-      <c r="L199" s="0"/>
-    </row>
-    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="0"/>
-      <c r="B200" s="0"/>
-      <c r="C200" s="0"/>
-      <c r="D200" s="0"/>
-      <c r="E200" s="0"/>
-      <c r="F200" s="0"/>
-      <c r="G200" s="0"/>
-      <c r="H200" s="0"/>
-      <c r="I200" s="0"/>
-      <c r="J200" s="0"/>
-      <c r="K200" s="0"/>
-      <c r="L200" s="0"/>
-    </row>
-    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="0"/>
-      <c r="B201" s="0"/>
-      <c r="C201" s="0"/>
-      <c r="D201" s="0"/>
-      <c r="E201" s="0"/>
-      <c r="F201" s="0"/>
-      <c r="G201" s="0"/>
-      <c r="H201" s="0"/>
-      <c r="I201" s="0"/>
-      <c r="J201" s="0"/>
-      <c r="K201" s="0"/>
-      <c r="L201" s="0"/>
-    </row>
-    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="0"/>
-      <c r="B202" s="0"/>
-      <c r="C202" s="0"/>
-      <c r="D202" s="0"/>
-      <c r="E202" s="0"/>
-      <c r="F202" s="0"/>
-      <c r="G202" s="0"/>
-      <c r="H202" s="0"/>
-      <c r="I202" s="0"/>
-      <c r="J202" s="0"/>
-      <c r="K202" s="0"/>
-      <c r="L202" s="0"/>
-    </row>
-    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="0"/>
-      <c r="B203" s="0"/>
-      <c r="C203" s="0"/>
-      <c r="D203" s="0"/>
-      <c r="E203" s="0"/>
-      <c r="F203" s="0"/>
-      <c r="G203" s="0"/>
-      <c r="H203" s="0"/>
-      <c r="I203" s="0"/>
-      <c r="J203" s="0"/>
-      <c r="K203" s="0"/>
-      <c r="L203" s="0"/>
-    </row>
-    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="0"/>
-      <c r="B204" s="0"/>
-      <c r="C204" s="0"/>
-      <c r="D204" s="0"/>
-      <c r="E204" s="0"/>
-      <c r="F204" s="0"/>
-      <c r="G204" s="0"/>
-      <c r="H204" s="0"/>
-      <c r="I204" s="0"/>
-      <c r="J204" s="0"/>
-      <c r="K204" s="0"/>
-      <c r="L204" s="0"/>
-    </row>
-    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="0"/>
-      <c r="B205" s="0"/>
-      <c r="C205" s="0"/>
-      <c r="D205" s="0"/>
-      <c r="E205" s="0"/>
-      <c r="F205" s="0"/>
-      <c r="G205" s="0"/>
-      <c r="H205" s="0"/>
-      <c r="I205" s="0"/>
-      <c r="J205" s="0"/>
-      <c r="K205" s="0"/>
-      <c r="L205" s="0"/>
-    </row>
-    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="0"/>
-      <c r="B206" s="0"/>
-      <c r="C206" s="0"/>
-      <c r="D206" s="0"/>
-      <c r="E206" s="0"/>
-      <c r="F206" s="0"/>
-      <c r="G206" s="0"/>
-      <c r="H206" s="0"/>
-      <c r="I206" s="0"/>
-      <c r="J206" s="0"/>
-      <c r="K206" s="0"/>
-      <c r="L206" s="0"/>
-    </row>
-    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="0"/>
-      <c r="B207" s="0"/>
-      <c r="C207" s="0"/>
-      <c r="D207" s="0"/>
-      <c r="E207" s="0"/>
-      <c r="F207" s="0"/>
-      <c r="G207" s="0"/>
-      <c r="H207" s="0"/>
-      <c r="I207" s="0"/>
-      <c r="J207" s="0"/>
-      <c r="K207" s="0"/>
-      <c r="L207" s="0"/>
-    </row>
-    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="0"/>
-      <c r="B208" s="0"/>
-      <c r="C208" s="0"/>
-      <c r="D208" s="0"/>
-      <c r="E208" s="0"/>
-      <c r="F208" s="0"/>
-      <c r="G208" s="0"/>
-      <c r="H208" s="0"/>
-      <c r="I208" s="0"/>
-      <c r="J208" s="0"/>
-      <c r="K208" s="0"/>
-      <c r="L208" s="0"/>
-    </row>
-    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="0"/>
-      <c r="B209" s="0"/>
-      <c r="C209" s="0"/>
-      <c r="D209" s="0"/>
-      <c r="E209" s="0"/>
-      <c r="F209" s="0"/>
-      <c r="G209" s="0"/>
-      <c r="H209" s="0"/>
-      <c r="I209" s="0"/>
-      <c r="J209" s="0"/>
-      <c r="K209" s="0"/>
-      <c r="L209" s="0"/>
-    </row>
-    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="0"/>
-      <c r="B210" s="0"/>
-      <c r="C210" s="0"/>
-      <c r="D210" s="0"/>
-      <c r="E210" s="0"/>
-      <c r="F210" s="0"/>
-      <c r="G210" s="0"/>
-      <c r="H210" s="0"/>
-      <c r="I210" s="0"/>
-      <c r="J210" s="0"/>
-      <c r="K210" s="0"/>
-      <c r="L210" s="0"/>
-    </row>
-    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="0"/>
-      <c r="B211" s="0"/>
-      <c r="C211" s="0"/>
-      <c r="D211" s="0"/>
-      <c r="E211" s="0"/>
-      <c r="F211" s="0"/>
-      <c r="G211" s="0"/>
-      <c r="H211" s="0"/>
-      <c r="I211" s="0"/>
-      <c r="J211" s="0"/>
-      <c r="K211" s="0"/>
-      <c r="L211" s="0"/>
-    </row>
-    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="0"/>
-      <c r="B212" s="0"/>
-      <c r="C212" s="0"/>
-      <c r="D212" s="0"/>
-      <c r="E212" s="0"/>
-      <c r="F212" s="0"/>
-      <c r="G212" s="0"/>
-      <c r="H212" s="0"/>
-      <c r="I212" s="0"/>
-      <c r="J212" s="0"/>
-      <c r="K212" s="0"/>
-      <c r="L212" s="0"/>
-    </row>
-    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="0"/>
-      <c r="B213" s="0"/>
-      <c r="C213" s="0"/>
-      <c r="D213" s="0"/>
-      <c r="E213" s="0"/>
-      <c r="F213" s="0"/>
-      <c r="G213" s="0"/>
-      <c r="H213" s="0"/>
-      <c r="I213" s="0"/>
-      <c r="J213" s="0"/>
-      <c r="K213" s="0"/>
-      <c r="L213" s="0"/>
-    </row>
-    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="0"/>
-      <c r="B214" s="0"/>
-      <c r="C214" s="0"/>
-      <c r="D214" s="0"/>
-      <c r="E214" s="0"/>
-      <c r="F214" s="0"/>
-      <c r="G214" s="0"/>
-      <c r="H214" s="0"/>
-      <c r="I214" s="0"/>
-      <c r="J214" s="0"/>
-      <c r="K214" s="0"/>
-      <c r="L214" s="0"/>
-    </row>
-    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="0"/>
-      <c r="B215" s="0"/>
-      <c r="C215" s="0"/>
-      <c r="D215" s="0"/>
-      <c r="E215" s="0"/>
-      <c r="F215" s="0"/>
-      <c r="G215" s="0"/>
-      <c r="H215" s="0"/>
-      <c r="I215" s="0"/>
-      <c r="J215" s="0"/>
-      <c r="K215" s="0"/>
-      <c r="L215" s="0"/>
-    </row>
-    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="0"/>
-      <c r="B216" s="0"/>
-      <c r="C216" s="0"/>
-      <c r="D216" s="0"/>
-      <c r="E216" s="0"/>
-      <c r="F216" s="0"/>
-      <c r="G216" s="0"/>
-      <c r="H216" s="0"/>
-      <c r="I216" s="0"/>
-      <c r="J216" s="0"/>
-      <c r="K216" s="0"/>
-      <c r="L216" s="0"/>
-    </row>
-    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="0"/>
-      <c r="B217" s="0"/>
-      <c r="C217" s="0"/>
-      <c r="D217" s="0"/>
-      <c r="E217" s="0"/>
-      <c r="F217" s="0"/>
-      <c r="G217" s="0"/>
-      <c r="H217" s="0"/>
-      <c r="I217" s="0"/>
-      <c r="J217" s="0"/>
-      <c r="K217" s="0"/>
-      <c r="L217" s="0"/>
-    </row>
-    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="0"/>
-      <c r="B218" s="0"/>
-      <c r="C218" s="0"/>
-      <c r="D218" s="0"/>
-      <c r="E218" s="0"/>
-      <c r="F218" s="0"/>
-      <c r="G218" s="0"/>
-      <c r="H218" s="0"/>
-      <c r="I218" s="0"/>
-      <c r="J218" s="0"/>
-      <c r="K218" s="0"/>
-      <c r="L218" s="0"/>
-    </row>
-    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="0"/>
-      <c r="B219" s="0"/>
-      <c r="C219" s="0"/>
-      <c r="D219" s="0"/>
-      <c r="E219" s="0"/>
-      <c r="F219" s="0"/>
-      <c r="G219" s="0"/>
-      <c r="H219" s="0"/>
-      <c r="I219" s="0"/>
-      <c r="J219" s="0"/>
-      <c r="K219" s="0"/>
-      <c r="L219" s="0"/>
-    </row>
-    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="0"/>
-      <c r="B220" s="0"/>
-      <c r="C220" s="0"/>
-      <c r="D220" s="0"/>
-      <c r="E220" s="0"/>
-      <c r="F220" s="0"/>
-      <c r="G220" s="0"/>
-      <c r="H220" s="0"/>
-      <c r="I220" s="0"/>
-      <c r="J220" s="0"/>
-      <c r="K220" s="0"/>
-      <c r="L220" s="0"/>
-    </row>
-    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="0"/>
-      <c r="B221" s="0"/>
-      <c r="C221" s="0"/>
-      <c r="D221" s="0"/>
-      <c r="E221" s="0"/>
-      <c r="F221" s="0"/>
-      <c r="G221" s="0"/>
-      <c r="H221" s="0"/>
-      <c r="I221" s="0"/>
-      <c r="J221" s="0"/>
-      <c r="K221" s="0"/>
-      <c r="L221" s="0"/>
-    </row>
-    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="0"/>
-      <c r="B222" s="0"/>
-      <c r="C222" s="0"/>
-      <c r="D222" s="0"/>
-      <c r="E222" s="0"/>
-      <c r="F222" s="0"/>
-      <c r="G222" s="0"/>
-      <c r="H222" s="0"/>
-      <c r="I222" s="0"/>
-      <c r="J222" s="0"/>
-      <c r="K222" s="0"/>
-      <c r="L222" s="0"/>
-    </row>
-    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="0"/>
-      <c r="B223" s="0"/>
-      <c r="C223" s="0"/>
-      <c r="D223" s="0"/>
-      <c r="E223" s="0"/>
-      <c r="F223" s="0"/>
-      <c r="G223" s="0"/>
-      <c r="H223" s="0"/>
-      <c r="I223" s="0"/>
-      <c r="J223" s="0"/>
-      <c r="K223" s="0"/>
-      <c r="L223" s="0"/>
-    </row>
-    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="0"/>
-      <c r="B224" s="0"/>
-      <c r="C224" s="0"/>
-      <c r="D224" s="0"/>
-      <c r="E224" s="0"/>
-      <c r="F224" s="0"/>
-      <c r="G224" s="0"/>
-      <c r="H224" s="0"/>
-      <c r="I224" s="0"/>
-      <c r="J224" s="0"/>
-      <c r="K224" s="0"/>
-      <c r="L224" s="0"/>
-    </row>
-    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="0"/>
-      <c r="B225" s="0"/>
-      <c r="C225" s="0"/>
-      <c r="D225" s="0"/>
-      <c r="E225" s="0"/>
-      <c r="F225" s="0"/>
-      <c r="G225" s="0"/>
-      <c r="H225" s="0"/>
-      <c r="I225" s="0"/>
-      <c r="J225" s="0"/>
-      <c r="K225" s="0"/>
-      <c r="L225" s="0"/>
-    </row>
-    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="0"/>
-      <c r="B226" s="0"/>
-      <c r="C226" s="0"/>
-      <c r="D226" s="0"/>
-      <c r="E226" s="0"/>
-      <c r="F226" s="0"/>
-      <c r="G226" s="0"/>
-      <c r="H226" s="0"/>
-      <c r="I226" s="0"/>
-      <c r="J226" s="0"/>
-      <c r="K226" s="0"/>
-      <c r="L226" s="0"/>
-    </row>
-    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="0"/>
-      <c r="B227" s="0"/>
-      <c r="C227" s="0"/>
-      <c r="D227" s="0"/>
-      <c r="E227" s="0"/>
-      <c r="F227" s="0"/>
-      <c r="G227" s="0"/>
-      <c r="H227" s="0"/>
-      <c r="I227" s="0"/>
-      <c r="J227" s="0"/>
-      <c r="K227" s="0"/>
-      <c r="L227" s="0"/>
-    </row>
-    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="0"/>
-      <c r="B228" s="0"/>
-      <c r="C228" s="0"/>
-      <c r="D228" s="0"/>
-      <c r="E228" s="0"/>
-      <c r="F228" s="0"/>
-      <c r="G228" s="0"/>
-      <c r="H228" s="0"/>
-      <c r="I228" s="0"/>
-      <c r="J228" s="0"/>
-      <c r="K228" s="0"/>
-      <c r="L228" s="0"/>
-    </row>
-    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="0"/>
-      <c r="B229" s="0"/>
-      <c r="C229" s="0"/>
-      <c r="D229" s="0"/>
-      <c r="E229" s="0"/>
-      <c r="F229" s="0"/>
-      <c r="G229" s="0"/>
-      <c r="H229" s="0"/>
-      <c r="I229" s="0"/>
-      <c r="J229" s="0"/>
-      <c r="K229" s="0"/>
-      <c r="L229" s="0"/>
-    </row>
-    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="0"/>
-      <c r="B230" s="0"/>
-      <c r="C230" s="0"/>
-      <c r="D230" s="0"/>
-      <c r="E230" s="0"/>
-      <c r="F230" s="0"/>
-      <c r="G230" s="0"/>
-      <c r="H230" s="0"/>
-      <c r="I230" s="0"/>
-      <c r="J230" s="0"/>
-      <c r="K230" s="0"/>
-      <c r="L230" s="0"/>
-    </row>
-    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="0"/>
-      <c r="B231" s="0"/>
-      <c r="C231" s="0"/>
-      <c r="D231" s="0"/>
-      <c r="E231" s="0"/>
-      <c r="F231" s="0"/>
-      <c r="G231" s="0"/>
-      <c r="H231" s="0"/>
-      <c r="I231" s="0"/>
-      <c r="J231" s="0"/>
-      <c r="K231" s="0"/>
-      <c r="L231" s="0"/>
-    </row>
-    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="0"/>
-      <c r="B232" s="0"/>
-      <c r="C232" s="0"/>
-      <c r="D232" s="0"/>
-      <c r="E232" s="0"/>
-      <c r="F232" s="0"/>
-      <c r="G232" s="0"/>
-      <c r="H232" s="0"/>
-      <c r="I232" s="0"/>
-      <c r="J232" s="0"/>
-      <c r="K232" s="0"/>
-      <c r="L232" s="0"/>
-    </row>
-    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="0"/>
-      <c r="B233" s="0"/>
-      <c r="C233" s="0"/>
-      <c r="D233" s="0"/>
-      <c r="E233" s="0"/>
-      <c r="F233" s="0"/>
-      <c r="G233" s="0"/>
-      <c r="H233" s="0"/>
-      <c r="I233" s="0"/>
-      <c r="J233" s="0"/>
-      <c r="K233" s="0"/>
-      <c r="L233" s="0"/>
-    </row>
-    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="0"/>
-      <c r="B234" s="0"/>
-      <c r="C234" s="0"/>
-      <c r="D234" s="0"/>
-      <c r="E234" s="0"/>
-      <c r="F234" s="0"/>
-      <c r="G234" s="0"/>
-      <c r="H234" s="0"/>
-      <c r="I234" s="0"/>
-      <c r="J234" s="0"/>
-      <c r="K234" s="0"/>
-      <c r="L234" s="0"/>
-    </row>
-    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="0"/>
-      <c r="B235" s="0"/>
-      <c r="C235" s="0"/>
-      <c r="D235" s="0"/>
-      <c r="E235" s="0"/>
-      <c r="F235" s="0"/>
-      <c r="G235" s="0"/>
-      <c r="H235" s="0"/>
-      <c r="I235" s="0"/>
-      <c r="J235" s="0"/>
-      <c r="K235" s="0"/>
-      <c r="L235" s="0"/>
-    </row>
-    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="0"/>
-      <c r="B236" s="0"/>
-      <c r="C236" s="0"/>
-      <c r="D236" s="0"/>
-      <c r="E236" s="0"/>
-      <c r="F236" s="0"/>
-      <c r="G236" s="0"/>
-      <c r="H236" s="0"/>
-      <c r="I236" s="0"/>
-      <c r="J236" s="0"/>
-      <c r="K236" s="0"/>
-      <c r="L236" s="0"/>
-    </row>
-    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="0"/>
-      <c r="B237" s="0"/>
-      <c r="C237" s="0"/>
-      <c r="D237" s="0"/>
-      <c r="E237" s="0"/>
-      <c r="F237" s="0"/>
-      <c r="G237" s="0"/>
-      <c r="H237" s="0"/>
-      <c r="I237" s="0"/>
-      <c r="J237" s="0"/>
-      <c r="K237" s="0"/>
-      <c r="L237" s="0"/>
-    </row>
-    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="0"/>
-      <c r="B238" s="0"/>
-      <c r="C238" s="0"/>
-      <c r="D238" s="0"/>
-      <c r="E238" s="0"/>
-      <c r="F238" s="0"/>
-      <c r="G238" s="0"/>
-      <c r="H238" s="0"/>
-      <c r="I238" s="0"/>
-      <c r="J238" s="0"/>
-      <c r="K238" s="0"/>
-      <c r="L238" s="0"/>
-    </row>
-    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="0"/>
-      <c r="B239" s="0"/>
-      <c r="C239" s="0"/>
-      <c r="D239" s="0"/>
-      <c r="E239" s="0"/>
-      <c r="F239" s="0"/>
-      <c r="G239" s="0"/>
-      <c r="H239" s="0"/>
-      <c r="I239" s="0"/>
-      <c r="J239" s="0"/>
-      <c r="K239" s="0"/>
-      <c r="L239" s="0"/>
-    </row>
-    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="0"/>
-      <c r="B240" s="0"/>
-      <c r="C240" s="0"/>
-      <c r="D240" s="0"/>
-      <c r="E240" s="0"/>
-      <c r="F240" s="0"/>
-      <c r="G240" s="0"/>
-      <c r="H240" s="0"/>
-      <c r="I240" s="0"/>
-      <c r="J240" s="0"/>
-      <c r="K240" s="0"/>
-      <c r="L240" s="0"/>
-    </row>
-    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="0"/>
-      <c r="B241" s="0"/>
-      <c r="C241" s="0"/>
-      <c r="D241" s="0"/>
-      <c r="E241" s="0"/>
-      <c r="F241" s="0"/>
-      <c r="G241" s="0"/>
-      <c r="H241" s="0"/>
-      <c r="I241" s="0"/>
-      <c r="J241" s="0"/>
-      <c r="K241" s="0"/>
-      <c r="L241" s="0"/>
-    </row>
-    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="0"/>
-      <c r="B242" s="0"/>
-      <c r="C242" s="0"/>
-      <c r="D242" s="0"/>
-      <c r="E242" s="0"/>
-      <c r="F242" s="0"/>
-      <c r="G242" s="0"/>
-      <c r="H242" s="0"/>
-      <c r="I242" s="0"/>
-      <c r="J242" s="0"/>
-      <c r="K242" s="0"/>
-      <c r="L242" s="0"/>
-    </row>
-    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="0"/>
-      <c r="B243" s="0"/>
-      <c r="C243" s="0"/>
-      <c r="D243" s="0"/>
-      <c r="E243" s="0"/>
-      <c r="F243" s="0"/>
-      <c r="G243" s="0"/>
-      <c r="H243" s="0"/>
-      <c r="I243" s="0"/>
-      <c r="J243" s="0"/>
-      <c r="K243" s="0"/>
-      <c r="L243" s="0"/>
-    </row>
-    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="0"/>
-      <c r="B244" s="0"/>
-      <c r="C244" s="0"/>
-      <c r="D244" s="0"/>
-      <c r="E244" s="0"/>
-      <c r="F244" s="0"/>
-      <c r="G244" s="0"/>
-      <c r="H244" s="0"/>
-      <c r="I244" s="0"/>
-      <c r="J244" s="0"/>
-      <c r="K244" s="0"/>
-      <c r="L244" s="0"/>
-    </row>
-    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="0"/>
-      <c r="B245" s="0"/>
-      <c r="C245" s="0"/>
-      <c r="D245" s="0"/>
-      <c r="E245" s="0"/>
-      <c r="F245" s="0"/>
-      <c r="G245" s="0"/>
-      <c r="H245" s="0"/>
-      <c r="I245" s="0"/>
-      <c r="J245" s="0"/>
-      <c r="K245" s="0"/>
-      <c r="L245" s="0"/>
-    </row>
-    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="0"/>
-      <c r="B246" s="0"/>
-      <c r="C246" s="0"/>
-      <c r="D246" s="0"/>
-      <c r="E246" s="0"/>
-      <c r="F246" s="0"/>
-      <c r="G246" s="0"/>
-      <c r="H246" s="0"/>
-      <c r="I246" s="0"/>
-      <c r="J246" s="0"/>
-      <c r="K246" s="0"/>
-      <c r="L246" s="0"/>
-    </row>
-    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="0"/>
-      <c r="B247" s="0"/>
-      <c r="C247" s="0"/>
-      <c r="D247" s="0"/>
-      <c r="E247" s="0"/>
-      <c r="F247" s="0"/>
-      <c r="G247" s="0"/>
-      <c r="H247" s="0"/>
-      <c r="I247" s="0"/>
-      <c r="J247" s="0"/>
-      <c r="K247" s="0"/>
-      <c r="L247" s="0"/>
-    </row>
-    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="0"/>
-      <c r="B248" s="0"/>
-      <c r="C248" s="0"/>
-      <c r="D248" s="0"/>
-      <c r="E248" s="0"/>
-      <c r="F248" s="0"/>
-      <c r="G248" s="0"/>
-      <c r="H248" s="0"/>
-      <c r="I248" s="0"/>
-      <c r="J248" s="0"/>
-      <c r="K248" s="0"/>
-      <c r="L248" s="0"/>
-    </row>
-    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="0"/>
-      <c r="B249" s="0"/>
-      <c r="C249" s="0"/>
-      <c r="D249" s="0"/>
-      <c r="E249" s="0"/>
-      <c r="F249" s="0"/>
-      <c r="G249" s="0"/>
-      <c r="H249" s="0"/>
-      <c r="I249" s="0"/>
-      <c r="J249" s="0"/>
-      <c r="K249" s="0"/>
-      <c r="L249" s="0"/>
-    </row>
-    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="0"/>
-      <c r="B250" s="0"/>
-      <c r="C250" s="0"/>
-      <c r="D250" s="0"/>
-      <c r="E250" s="0"/>
-      <c r="F250" s="0"/>
-      <c r="G250" s="0"/>
-      <c r="H250" s="0"/>
-      <c r="I250" s="0"/>
-      <c r="J250" s="0"/>
-      <c r="K250" s="0"/>
-      <c r="L250" s="0"/>
-    </row>
-    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="0"/>
-      <c r="B251" s="0"/>
-      <c r="C251" s="0"/>
-      <c r="D251" s="0"/>
-      <c r="E251" s="0"/>
-      <c r="F251" s="0"/>
-      <c r="G251" s="0"/>
-      <c r="H251" s="0"/>
-      <c r="I251" s="0"/>
-      <c r="J251" s="0"/>
-      <c r="K251" s="0"/>
-      <c r="L251" s="0"/>
-    </row>
-    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="0"/>
-      <c r="B252" s="0"/>
-      <c r="C252" s="0"/>
-      <c r="D252" s="0"/>
-      <c r="E252" s="0"/>
-      <c r="F252" s="0"/>
-      <c r="G252" s="0"/>
-      <c r="H252" s="0"/>
-      <c r="I252" s="0"/>
-      <c r="J252" s="0"/>
-      <c r="K252" s="0"/>
-      <c r="L252" s="0"/>
-    </row>
-    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="0"/>
-      <c r="B253" s="0"/>
-      <c r="C253" s="0"/>
-      <c r="D253" s="0"/>
-      <c r="E253" s="0"/>
-      <c r="F253" s="0"/>
-      <c r="G253" s="0"/>
-      <c r="H253" s="0"/>
-      <c r="I253" s="0"/>
-      <c r="J253" s="0"/>
-      <c r="K253" s="0"/>
-      <c r="L253" s="0"/>
-    </row>
-    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="0"/>
-      <c r="B254" s="0"/>
-      <c r="C254" s="0"/>
-      <c r="D254" s="0"/>
-      <c r="E254" s="0"/>
-      <c r="F254" s="0"/>
-      <c r="G254" s="0"/>
-      <c r="H254" s="0"/>
-      <c r="I254" s="0"/>
-      <c r="J254" s="0"/>
-      <c r="K254" s="0"/>
-      <c r="L254" s="0"/>
-    </row>
-    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="0"/>
-      <c r="B255" s="0"/>
-      <c r="C255" s="0"/>
-      <c r="D255" s="0"/>
-      <c r="E255" s="0"/>
-      <c r="F255" s="0"/>
-      <c r="G255" s="0"/>
-      <c r="H255" s="0"/>
-      <c r="I255" s="0"/>
-      <c r="J255" s="0"/>
-      <c r="K255" s="0"/>
-      <c r="L255" s="0"/>
-    </row>
-    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="0"/>
-      <c r="B256" s="0"/>
-      <c r="C256" s="0"/>
-      <c r="D256" s="0"/>
-      <c r="E256" s="0"/>
-      <c r="F256" s="0"/>
-      <c r="G256" s="0"/>
-      <c r="H256" s="0"/>
-      <c r="I256" s="0"/>
-      <c r="J256" s="0"/>
-      <c r="K256" s="0"/>
-      <c r="L256" s="0"/>
-    </row>
-    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="0"/>
-      <c r="B257" s="0"/>
-      <c r="C257" s="0"/>
-      <c r="D257" s="0"/>
-      <c r="E257" s="0"/>
-      <c r="F257" s="0"/>
-      <c r="G257" s="0"/>
-      <c r="H257" s="0"/>
-      <c r="I257" s="0"/>
-      <c r="J257" s="0"/>
-      <c r="K257" s="0"/>
-      <c r="L257" s="0"/>
-    </row>
-    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="0"/>
-      <c r="B258" s="0"/>
-      <c r="C258" s="0"/>
-      <c r="D258" s="0"/>
-      <c r="E258" s="0"/>
-      <c r="F258" s="0"/>
-      <c r="G258" s="0"/>
-      <c r="H258" s="0"/>
-      <c r="I258" s="0"/>
-      <c r="J258" s="0"/>
-      <c r="K258" s="0"/>
-      <c r="L258" s="0"/>
-    </row>
-    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="0"/>
-      <c r="B259" s="0"/>
-      <c r="C259" s="0"/>
-      <c r="D259" s="0"/>
-      <c r="E259" s="0"/>
-      <c r="F259" s="0"/>
-      <c r="G259" s="0"/>
-      <c r="H259" s="0"/>
-      <c r="I259" s="0"/>
-      <c r="J259" s="0"/>
-      <c r="K259" s="0"/>
-      <c r="L259" s="0"/>
-    </row>
-    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="0"/>
-      <c r="B260" s="0"/>
-      <c r="C260" s="0"/>
-      <c r="D260" s="0"/>
-      <c r="E260" s="0"/>
-      <c r="F260" s="0"/>
-      <c r="G260" s="0"/>
-      <c r="H260" s="0"/>
-      <c r="I260" s="0"/>
-      <c r="J260" s="0"/>
-      <c r="K260" s="0"/>
-      <c r="L260" s="0"/>
-    </row>
-    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="0"/>
-      <c r="B261" s="0"/>
-      <c r="C261" s="0"/>
-      <c r="D261" s="0"/>
-      <c r="E261" s="0"/>
-      <c r="F261" s="0"/>
-      <c r="G261" s="0"/>
-      <c r="H261" s="0"/>
-      <c r="I261" s="0"/>
-      <c r="J261" s="0"/>
-      <c r="K261" s="0"/>
-      <c r="L261" s="0"/>
-    </row>
-    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="0"/>
-      <c r="B262" s="0"/>
-      <c r="C262" s="0"/>
-      <c r="D262" s="0"/>
-      <c r="E262" s="0"/>
-      <c r="F262" s="0"/>
-      <c r="G262" s="0"/>
-      <c r="H262" s="0"/>
-      <c r="I262" s="0"/>
-      <c r="J262" s="0"/>
-      <c r="K262" s="0"/>
-      <c r="L262" s="0"/>
-    </row>
-    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="0"/>
-      <c r="B263" s="0"/>
-      <c r="C263" s="0"/>
-      <c r="D263" s="0"/>
-      <c r="E263" s="0"/>
-      <c r="F263" s="0"/>
-      <c r="G263" s="0"/>
-      <c r="H263" s="0"/>
-      <c r="I263" s="0"/>
-      <c r="J263" s="0"/>
-      <c r="K263" s="0"/>
-      <c r="L263" s="0"/>
-    </row>
-    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="0"/>
-      <c r="B264" s="0"/>
-      <c r="C264" s="0"/>
-      <c r="D264" s="0"/>
-      <c r="E264" s="0"/>
-      <c r="F264" s="0"/>
-      <c r="G264" s="0"/>
-      <c r="H264" s="0"/>
-      <c r="I264" s="0"/>
-      <c r="J264" s="0"/>
-      <c r="K264" s="0"/>
-      <c r="L264" s="0"/>
-    </row>
-    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="0"/>
-      <c r="B265" s="0"/>
-      <c r="C265" s="0"/>
-      <c r="D265" s="0"/>
-      <c r="E265" s="0"/>
-      <c r="F265" s="0"/>
-      <c r="G265" s="0"/>
-      <c r="H265" s="0"/>
-      <c r="I265" s="0"/>
-      <c r="J265" s="0"/>
-      <c r="K265" s="0"/>
-      <c r="L265" s="0"/>
-    </row>
-    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="0"/>
-      <c r="B266" s="0"/>
-      <c r="C266" s="0"/>
-      <c r="D266" s="0"/>
-      <c r="E266" s="0"/>
-      <c r="F266" s="0"/>
-      <c r="G266" s="0"/>
-      <c r="H266" s="0"/>
-      <c r="I266" s="0"/>
-      <c r="J266" s="0"/>
-      <c r="K266" s="0"/>
-      <c r="L266" s="0"/>
-    </row>
-    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="0"/>
-      <c r="B267" s="0"/>
-      <c r="C267" s="0"/>
-      <c r="D267" s="0"/>
-      <c r="E267" s="0"/>
-      <c r="F267" s="0"/>
-      <c r="G267" s="0"/>
-      <c r="H267" s="0"/>
-      <c r="I267" s="0"/>
-      <c r="J267" s="0"/>
-      <c r="K267" s="0"/>
-      <c r="L267" s="0"/>
-    </row>
-    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="0"/>
-      <c r="B268" s="0"/>
-      <c r="C268" s="0"/>
-      <c r="D268" s="0"/>
-      <c r="E268" s="0"/>
-      <c r="F268" s="0"/>
-      <c r="G268" s="0"/>
-      <c r="H268" s="0"/>
-      <c r="I268" s="0"/>
-      <c r="J268" s="0"/>
-      <c r="K268" s="0"/>
-      <c r="L268" s="0"/>
-    </row>
-    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="0"/>
-      <c r="B269" s="0"/>
-      <c r="C269" s="0"/>
-      <c r="D269" s="0"/>
-      <c r="E269" s="0"/>
-      <c r="F269" s="0"/>
-      <c r="G269" s="0"/>
-      <c r="H269" s="0"/>
-      <c r="I269" s="0"/>
-      <c r="J269" s="0"/>
-      <c r="K269" s="0"/>
-      <c r="L269" s="0"/>
-    </row>
-    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="0"/>
-      <c r="B270" s="0"/>
-      <c r="C270" s="0"/>
-      <c r="D270" s="0"/>
-      <c r="E270" s="0"/>
-      <c r="F270" s="0"/>
-      <c r="G270" s="0"/>
-      <c r="H270" s="0"/>
-      <c r="I270" s="0"/>
-      <c r="J270" s="0"/>
-      <c r="K270" s="0"/>
-      <c r="L270" s="0"/>
-    </row>
-    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="0"/>
-      <c r="B271" s="0"/>
-      <c r="C271" s="0"/>
-      <c r="D271" s="0"/>
-      <c r="E271" s="0"/>
-      <c r="F271" s="0"/>
-      <c r="G271" s="0"/>
-      <c r="H271" s="0"/>
-      <c r="I271" s="0"/>
-      <c r="J271" s="0"/>
-      <c r="K271" s="0"/>
-      <c r="L271" s="0"/>
-    </row>
-    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="0"/>
-      <c r="B272" s="0"/>
-      <c r="C272" s="0"/>
-      <c r="D272" s="0"/>
-      <c r="E272" s="0"/>
-      <c r="F272" s="0"/>
-      <c r="G272" s="0"/>
-      <c r="H272" s="0"/>
-      <c r="I272" s="0"/>
-      <c r="J272" s="0"/>
-      <c r="K272" s="0"/>
-      <c r="L272" s="0"/>
-    </row>
-    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="0"/>
-      <c r="B273" s="0"/>
-      <c r="C273" s="0"/>
-      <c r="D273" s="0"/>
-      <c r="E273" s="0"/>
-      <c r="F273" s="0"/>
-      <c r="G273" s="0"/>
-      <c r="H273" s="0"/>
-      <c r="I273" s="0"/>
-      <c r="J273" s="0"/>
-      <c r="K273" s="0"/>
-      <c r="L273" s="0"/>
-    </row>
-    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="0"/>
-      <c r="B274" s="0"/>
-      <c r="C274" s="0"/>
-      <c r="D274" s="0"/>
-      <c r="E274" s="0"/>
-      <c r="F274" s="0"/>
-      <c r="G274" s="0"/>
-      <c r="H274" s="0"/>
-      <c r="I274" s="0"/>
-      <c r="J274" s="0"/>
-      <c r="K274" s="0"/>
-      <c r="L274" s="0"/>
-    </row>
-    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="0"/>
-      <c r="B275" s="0"/>
-      <c r="C275" s="0"/>
-      <c r="D275" s="0"/>
-      <c r="E275" s="0"/>
-      <c r="F275" s="0"/>
-      <c r="G275" s="0"/>
-      <c r="H275" s="0"/>
-      <c r="I275" s="0"/>
-      <c r="J275" s="0"/>
-      <c r="K275" s="0"/>
-      <c r="L275" s="0"/>
-    </row>
-    <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="0"/>
-      <c r="B276" s="0"/>
-      <c r="C276" s="0"/>
-      <c r="D276" s="0"/>
-      <c r="E276" s="0"/>
-      <c r="F276" s="0"/>
-      <c r="G276" s="0"/>
-      <c r="H276" s="0"/>
-      <c r="I276" s="0"/>
-      <c r="J276" s="0"/>
-      <c r="K276" s="0"/>
-      <c r="L276" s="0"/>
-    </row>
-    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="0"/>
-      <c r="B277" s="0"/>
-      <c r="C277" s="0"/>
-      <c r="D277" s="0"/>
-      <c r="E277" s="0"/>
-      <c r="F277" s="0"/>
-      <c r="G277" s="0"/>
-      <c r="H277" s="0"/>
-      <c r="I277" s="0"/>
-      <c r="J277" s="0"/>
-      <c r="K277" s="0"/>
-      <c r="L277" s="0"/>
-    </row>
-    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="0"/>
-      <c r="B278" s="0"/>
-      <c r="C278" s="0"/>
-      <c r="D278" s="0"/>
-      <c r="E278" s="0"/>
-      <c r="F278" s="0"/>
-      <c r="G278" s="0"/>
-      <c r="H278" s="0"/>
-      <c r="I278" s="0"/>
-      <c r="J278" s="0"/>
-      <c r="K278" s="0"/>
-      <c r="L278" s="0"/>
-    </row>
-    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="0"/>
-      <c r="B279" s="0"/>
-      <c r="C279" s="0"/>
-      <c r="D279" s="0"/>
-      <c r="E279" s="0"/>
-      <c r="F279" s="0"/>
-      <c r="G279" s="0"/>
-      <c r="H279" s="0"/>
-      <c r="I279" s="0"/>
-      <c r="J279" s="0"/>
-      <c r="K279" s="0"/>
-      <c r="L279" s="0"/>
-    </row>
-    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="0"/>
-      <c r="B280" s="0"/>
-      <c r="C280" s="0"/>
-      <c r="D280" s="0"/>
-      <c r="E280" s="0"/>
-      <c r="F280" s="0"/>
-      <c r="G280" s="0"/>
-      <c r="H280" s="0"/>
-      <c r="I280" s="0"/>
-      <c r="J280" s="0"/>
-      <c r="K280" s="0"/>
-      <c r="L280" s="0"/>
-    </row>
-    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="0"/>
-      <c r="B281" s="0"/>
-      <c r="C281" s="0"/>
-      <c r="D281" s="0"/>
-      <c r="E281" s="0"/>
-      <c r="F281" s="0"/>
-      <c r="G281" s="0"/>
-      <c r="H281" s="0"/>
-      <c r="I281" s="0"/>
-      <c r="J281" s="0"/>
-      <c r="K281" s="0"/>
-      <c r="L281" s="0"/>
-    </row>
-    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="0"/>
-      <c r="B282" s="0"/>
-      <c r="C282" s="0"/>
-      <c r="D282" s="0"/>
-      <c r="E282" s="0"/>
-      <c r="F282" s="0"/>
-      <c r="G282" s="0"/>
-      <c r="H282" s="0"/>
-      <c r="I282" s="0"/>
-      <c r="J282" s="0"/>
-      <c r="K282" s="0"/>
-      <c r="L282" s="0"/>
-    </row>
-    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="0"/>
-      <c r="B283" s="0"/>
-      <c r="C283" s="0"/>
-      <c r="D283" s="0"/>
-      <c r="E283" s="0"/>
-      <c r="F283" s="0"/>
-      <c r="G283" s="0"/>
-      <c r="H283" s="0"/>
-      <c r="I283" s="0"/>
-      <c r="J283" s="0"/>
-      <c r="K283" s="0"/>
-      <c r="L283" s="0"/>
-    </row>
-    <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="0"/>
-      <c r="B284" s="0"/>
-      <c r="C284" s="0"/>
-      <c r="D284" s="0"/>
-      <c r="E284" s="0"/>
-      <c r="F284" s="0"/>
-      <c r="G284" s="0"/>
-      <c r="H284" s="0"/>
-      <c r="I284" s="0"/>
-      <c r="J284" s="0"/>
-      <c r="K284" s="0"/>
-      <c r="L284" s="0"/>
-    </row>
-    <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="0"/>
-      <c r="B285" s="0"/>
-      <c r="C285" s="0"/>
-      <c r="D285" s="0"/>
-      <c r="E285" s="0"/>
-      <c r="F285" s="0"/>
-      <c r="G285" s="0"/>
-      <c r="H285" s="0"/>
-      <c r="I285" s="0"/>
-      <c r="J285" s="0"/>
-      <c r="K285" s="0"/>
-      <c r="L285" s="0"/>
-    </row>
-    <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="0"/>
-      <c r="B286" s="0"/>
-      <c r="C286" s="0"/>
-      <c r="D286" s="0"/>
-      <c r="E286" s="0"/>
-      <c r="F286" s="0"/>
-      <c r="G286" s="0"/>
-      <c r="H286" s="0"/>
-      <c r="I286" s="0"/>
-      <c r="J286" s="0"/>
-      <c r="K286" s="0"/>
-      <c r="L286" s="0"/>
-    </row>
-    <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="0"/>
-      <c r="B287" s="0"/>
-      <c r="C287" s="0"/>
-      <c r="D287" s="0"/>
-      <c r="E287" s="0"/>
-      <c r="F287" s="0"/>
-      <c r="G287" s="0"/>
-      <c r="H287" s="0"/>
-      <c r="I287" s="0"/>
-      <c r="J287" s="0"/>
-      <c r="K287" s="0"/>
-      <c r="L287" s="0"/>
-    </row>
-    <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="0"/>
-      <c r="B288" s="0"/>
-      <c r="C288" s="0"/>
-      <c r="D288" s="0"/>
-      <c r="E288" s="0"/>
-      <c r="F288" s="0"/>
-      <c r="G288" s="0"/>
-      <c r="H288" s="0"/>
-      <c r="I288" s="0"/>
-      <c r="J288" s="0"/>
-      <c r="K288" s="0"/>
-      <c r="L288" s="0"/>
-    </row>
-    <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="0"/>
-      <c r="B289" s="0"/>
-      <c r="C289" s="0"/>
-      <c r="D289" s="0"/>
-      <c r="E289" s="0"/>
-      <c r="F289" s="0"/>
-      <c r="G289" s="0"/>
-      <c r="H289" s="0"/>
-      <c r="I289" s="0"/>
-      <c r="J289" s="0"/>
-      <c r="K289" s="0"/>
-      <c r="L289" s="0"/>
-    </row>
-    <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="0"/>
-      <c r="B290" s="0"/>
-      <c r="C290" s="0"/>
-      <c r="D290" s="0"/>
-      <c r="E290" s="0"/>
-      <c r="F290" s="0"/>
-      <c r="G290" s="0"/>
-      <c r="H290" s="0"/>
-      <c r="I290" s="0"/>
-      <c r="J290" s="0"/>
-      <c r="K290" s="0"/>
-      <c r="L290" s="0"/>
-    </row>
-    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="0"/>
-      <c r="B291" s="0"/>
-      <c r="C291" s="0"/>
-      <c r="D291" s="0"/>
-      <c r="E291" s="0"/>
-      <c r="F291" s="0"/>
-      <c r="G291" s="0"/>
-      <c r="H291" s="0"/>
-      <c r="I291" s="0"/>
-      <c r="J291" s="0"/>
-      <c r="K291" s="0"/>
-      <c r="L291" s="0"/>
-    </row>
-    <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="0"/>
-      <c r="B292" s="0"/>
-      <c r="C292" s="0"/>
-      <c r="D292" s="0"/>
-      <c r="E292" s="0"/>
-      <c r="F292" s="0"/>
-      <c r="G292" s="0"/>
-      <c r="H292" s="0"/>
-      <c r="I292" s="0"/>
-      <c r="J292" s="0"/>
-      <c r="K292" s="0"/>
-      <c r="L292" s="0"/>
-    </row>
-    <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="0"/>
-      <c r="B293" s="0"/>
-      <c r="C293" s="0"/>
-      <c r="D293" s="0"/>
-      <c r="E293" s="0"/>
-      <c r="F293" s="0"/>
-      <c r="G293" s="0"/>
-      <c r="H293" s="0"/>
-      <c r="I293" s="0"/>
-      <c r="J293" s="0"/>
-      <c r="K293" s="0"/>
-      <c r="L293" s="0"/>
-    </row>
-    <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="0"/>
-      <c r="B294" s="0"/>
-      <c r="C294" s="0"/>
-      <c r="D294" s="0"/>
-      <c r="E294" s="0"/>
-      <c r="F294" s="0"/>
-      <c r="G294" s="0"/>
-      <c r="H294" s="0"/>
-      <c r="I294" s="0"/>
-      <c r="J294" s="0"/>
-      <c r="K294" s="0"/>
-      <c r="L294" s="0"/>
-    </row>
-    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="0"/>
-      <c r="B295" s="0"/>
-      <c r="C295" s="0"/>
-      <c r="D295" s="0"/>
-      <c r="E295" s="0"/>
-      <c r="F295" s="0"/>
-      <c r="G295" s="0"/>
-      <c r="H295" s="0"/>
-      <c r="I295" s="0"/>
-      <c r="J295" s="0"/>
-      <c r="K295" s="0"/>
-      <c r="L295" s="0"/>
-    </row>
-    <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="0"/>
-      <c r="B296" s="0"/>
-      <c r="C296" s="0"/>
-      <c r="D296" s="0"/>
-      <c r="E296" s="0"/>
-      <c r="F296" s="0"/>
-      <c r="G296" s="0"/>
-      <c r="H296" s="0"/>
-      <c r="I296" s="0"/>
-      <c r="J296" s="0"/>
-      <c r="K296" s="0"/>
-      <c r="L296" s="0"/>
-    </row>
-    <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="0"/>
-      <c r="B297" s="0"/>
-      <c r="C297" s="0"/>
-      <c r="D297" s="0"/>
-      <c r="E297" s="0"/>
-      <c r="F297" s="0"/>
-      <c r="G297" s="0"/>
-      <c r="H297" s="0"/>
-      <c r="I297" s="0"/>
-      <c r="J297" s="0"/>
-      <c r="K297" s="0"/>
-      <c r="L297" s="0"/>
-    </row>
-    <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="0"/>
-      <c r="B298" s="0"/>
-      <c r="C298" s="0"/>
-      <c r="D298" s="0"/>
-      <c r="E298" s="0"/>
-      <c r="F298" s="0"/>
-      <c r="G298" s="0"/>
-      <c r="H298" s="0"/>
-      <c r="I298" s="0"/>
-      <c r="J298" s="0"/>
-      <c r="K298" s="0"/>
-      <c r="L298" s="0"/>
-    </row>
-    <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="0"/>
-      <c r="B299" s="0"/>
-      <c r="C299" s="0"/>
-      <c r="D299" s="0"/>
-      <c r="E299" s="0"/>
-      <c r="F299" s="0"/>
-      <c r="G299" s="0"/>
-      <c r="H299" s="0"/>
-      <c r="I299" s="0"/>
-      <c r="J299" s="0"/>
-      <c r="K299" s="0"/>
-      <c r="L299" s="0"/>
-    </row>
-    <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="0"/>
-      <c r="B300" s="0"/>
-      <c r="C300" s="0"/>
-      <c r="D300" s="0"/>
-      <c r="E300" s="0"/>
-      <c r="F300" s="0"/>
-      <c r="G300" s="0"/>
-      <c r="H300" s="0"/>
-      <c r="I300" s="0"/>
-      <c r="J300" s="0"/>
-      <c r="K300" s="0"/>
-      <c r="L300" s="0"/>
-    </row>
-    <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="0"/>
-      <c r="B301" s="0"/>
-      <c r="C301" s="0"/>
-      <c r="D301" s="0"/>
-      <c r="E301" s="0"/>
-      <c r="F301" s="0"/>
-      <c r="G301" s="0"/>
-      <c r="H301" s="0"/>
-      <c r="I301" s="0"/>
-      <c r="J301" s="0"/>
-      <c r="K301" s="0"/>
-      <c r="L301" s="0"/>
-    </row>
-    <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="0"/>
-      <c r="B302" s="0"/>
-      <c r="C302" s="0"/>
-      <c r="D302" s="0"/>
-      <c r="E302" s="0"/>
-      <c r="F302" s="0"/>
-      <c r="G302" s="0"/>
-      <c r="H302" s="0"/>
-      <c r="I302" s="0"/>
-      <c r="J302" s="0"/>
-      <c r="K302" s="0"/>
-      <c r="L302" s="0"/>
-    </row>
-    <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="0"/>
-      <c r="B303" s="0"/>
-      <c r="C303" s="0"/>
-      <c r="D303" s="0"/>
-      <c r="E303" s="0"/>
-      <c r="F303" s="0"/>
-      <c r="G303" s="0"/>
-      <c r="H303" s="0"/>
-      <c r="I303" s="0"/>
-      <c r="J303" s="0"/>
-      <c r="K303" s="0"/>
-      <c r="L303" s="0"/>
-    </row>
-    <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="0"/>
-      <c r="B304" s="0"/>
-      <c r="C304" s="0"/>
-      <c r="D304" s="0"/>
-      <c r="E304" s="0"/>
-      <c r="F304" s="0"/>
-      <c r="G304" s="0"/>
-      <c r="H304" s="0"/>
-      <c r="I304" s="0"/>
-      <c r="J304" s="0"/>
-      <c r="K304" s="0"/>
-      <c r="L304" s="0"/>
-    </row>
-    <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="0"/>
-      <c r="B305" s="0"/>
-      <c r="C305" s="0"/>
-      <c r="D305" s="0"/>
-      <c r="E305" s="0"/>
-      <c r="F305" s="0"/>
-      <c r="G305" s="0"/>
-      <c r="H305" s="0"/>
-      <c r="I305" s="0"/>
-      <c r="J305" s="0"/>
-      <c r="K305" s="0"/>
-      <c r="L305" s="0"/>
-    </row>
-    <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="0"/>
-      <c r="B306" s="0"/>
-      <c r="C306" s="0"/>
-      <c r="D306" s="0"/>
-      <c r="E306" s="0"/>
-      <c r="F306" s="0"/>
-      <c r="G306" s="0"/>
-      <c r="H306" s="0"/>
-      <c r="I306" s="0"/>
-      <c r="J306" s="0"/>
-      <c r="K306" s="0"/>
-      <c r="L306" s="0"/>
-    </row>
-    <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="0"/>
-      <c r="B307" s="0"/>
-      <c r="C307" s="0"/>
-      <c r="D307" s="0"/>
-      <c r="E307" s="0"/>
-      <c r="F307" s="0"/>
-      <c r="G307" s="0"/>
-      <c r="H307" s="0"/>
-      <c r="I307" s="0"/>
-      <c r="J307" s="0"/>
-      <c r="K307" s="0"/>
-      <c r="L307" s="0"/>
-    </row>
-    <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="0"/>
-      <c r="B308" s="0"/>
-      <c r="C308" s="0"/>
-      <c r="D308" s="0"/>
-      <c r="E308" s="0"/>
-      <c r="F308" s="0"/>
-      <c r="G308" s="0"/>
-      <c r="H308" s="0"/>
-      <c r="I308" s="0"/>
-      <c r="J308" s="0"/>
-      <c r="K308" s="0"/>
-      <c r="L308" s="0"/>
-    </row>
-    <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="0"/>
-      <c r="B309" s="0"/>
-      <c r="C309" s="0"/>
-      <c r="D309" s="0"/>
-      <c r="E309" s="0"/>
-      <c r="F309" s="0"/>
-      <c r="G309" s="0"/>
-      <c r="H309" s="0"/>
-      <c r="I309" s="0"/>
-      <c r="J309" s="0"/>
-      <c r="K309" s="0"/>
-      <c r="L309" s="0"/>
-    </row>
-    <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="0"/>
-      <c r="B310" s="0"/>
-      <c r="C310" s="0"/>
-      <c r="D310" s="0"/>
-      <c r="E310" s="0"/>
-      <c r="F310" s="0"/>
-      <c r="G310" s="0"/>
-      <c r="H310" s="0"/>
-      <c r="I310" s="0"/>
-      <c r="J310" s="0"/>
-      <c r="K310" s="0"/>
-      <c r="L310" s="0"/>
-    </row>
-    <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="0"/>
-      <c r="B311" s="0"/>
-      <c r="C311" s="0"/>
-      <c r="D311" s="0"/>
-      <c r="E311" s="0"/>
-      <c r="F311" s="0"/>
-      <c r="G311" s="0"/>
-      <c r="H311" s="0"/>
-      <c r="I311" s="0"/>
-      <c r="J311" s="0"/>
-      <c r="K311" s="0"/>
-      <c r="L311" s="0"/>
-    </row>
-    <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A312" s="0"/>
-      <c r="B312" s="0"/>
-      <c r="C312" s="0"/>
-      <c r="D312" s="0"/>
-      <c r="E312" s="0"/>
-      <c r="F312" s="0"/>
-      <c r="G312" s="0"/>
-      <c r="H312" s="0"/>
-      <c r="I312" s="0"/>
-      <c r="J312" s="0"/>
-      <c r="K312" s="0"/>
-      <c r="L312" s="0"/>
-    </row>
-    <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A313" s="0"/>
-      <c r="B313" s="0"/>
-      <c r="C313" s="0"/>
-      <c r="D313" s="0"/>
-      <c r="E313" s="0"/>
-      <c r="F313" s="0"/>
-      <c r="G313" s="0"/>
-      <c r="H313" s="0"/>
-      <c r="I313" s="0"/>
-      <c r="J313" s="0"/>
-      <c r="K313" s="0"/>
-      <c r="L313" s="0"/>
-    </row>
-    <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A314" s="0"/>
-      <c r="B314" s="0"/>
-      <c r="C314" s="0"/>
-      <c r="D314" s="0"/>
-      <c r="E314" s="0"/>
-      <c r="F314" s="0"/>
-      <c r="G314" s="0"/>
-      <c r="H314" s="0"/>
-      <c r="I314" s="0"/>
-      <c r="J314" s="0"/>
-      <c r="K314" s="0"/>
-      <c r="L314" s="0"/>
-    </row>
-    <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A315" s="0"/>
-      <c r="B315" s="0"/>
-      <c r="C315" s="0"/>
-      <c r="D315" s="0"/>
-      <c r="E315" s="0"/>
-      <c r="F315" s="0"/>
-      <c r="G315" s="0"/>
-      <c r="H315" s="0"/>
-      <c r="I315" s="0"/>
-      <c r="J315" s="0"/>
-      <c r="K315" s="0"/>
-      <c r="L315" s="0"/>
-    </row>
-    <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A316" s="0"/>
-      <c r="B316" s="0"/>
-      <c r="C316" s="0"/>
-      <c r="D316" s="0"/>
-      <c r="E316" s="0"/>
-      <c r="F316" s="0"/>
-      <c r="G316" s="0"/>
-      <c r="H316" s="0"/>
-      <c r="I316" s="0"/>
-      <c r="J316" s="0"/>
-      <c r="K316" s="0"/>
-      <c r="L316" s="0"/>
-    </row>
-    <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="0"/>
-      <c r="B317" s="0"/>
-      <c r="C317" s="0"/>
-      <c r="D317" s="0"/>
-      <c r="E317" s="0"/>
-      <c r="F317" s="0"/>
-      <c r="G317" s="0"/>
-      <c r="H317" s="0"/>
-      <c r="I317" s="0"/>
-      <c r="J317" s="0"/>
-      <c r="K317" s="0"/>
-      <c r="L317" s="0"/>
-    </row>
-    <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A318" s="0"/>
-      <c r="B318" s="0"/>
-      <c r="C318" s="0"/>
-      <c r="D318" s="0"/>
-      <c r="E318" s="0"/>
-      <c r="F318" s="0"/>
-      <c r="G318" s="0"/>
-      <c r="H318" s="0"/>
-      <c r="I318" s="0"/>
-      <c r="J318" s="0"/>
-      <c r="K318" s="0"/>
-      <c r="L318" s="0"/>
-    </row>
-    <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A319" s="0"/>
-      <c r="B319" s="0"/>
-      <c r="C319" s="0"/>
-      <c r="D319" s="0"/>
-      <c r="E319" s="0"/>
-      <c r="F319" s="0"/>
-      <c r="G319" s="0"/>
-      <c r="H319" s="0"/>
-      <c r="I319" s="0"/>
-      <c r="J319" s="0"/>
-      <c r="K319" s="0"/>
-      <c r="L319" s="0"/>
-    </row>
-    <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A320" s="0"/>
-      <c r="B320" s="0"/>
-      <c r="C320" s="0"/>
-      <c r="D320" s="0"/>
-      <c r="E320" s="0"/>
-      <c r="F320" s="0"/>
-      <c r="G320" s="0"/>
-      <c r="H320" s="0"/>
-      <c r="I320" s="0"/>
-      <c r="J320" s="0"/>
-      <c r="K320" s="0"/>
-      <c r="L320" s="0"/>
-    </row>
-    <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A321" s="0"/>
-      <c r="B321" s="0"/>
-      <c r="C321" s="0"/>
-      <c r="D321" s="0"/>
-      <c r="E321" s="0"/>
-      <c r="F321" s="0"/>
-      <c r="G321" s="0"/>
-      <c r="H321" s="0"/>
-      <c r="I321" s="0"/>
-      <c r="J321" s="0"/>
-      <c r="K321" s="0"/>
-      <c r="L321" s="0"/>
-    </row>
-    <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A322" s="0"/>
-      <c r="B322" s="0"/>
-      <c r="C322" s="0"/>
-      <c r="D322" s="0"/>
-      <c r="E322" s="0"/>
-      <c r="F322" s="0"/>
-      <c r="G322" s="0"/>
-      <c r="H322" s="0"/>
-      <c r="I322" s="0"/>
-      <c r="J322" s="0"/>
-      <c r="K322" s="0"/>
-      <c r="L322" s="0"/>
-    </row>
-    <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A323" s="0"/>
-      <c r="B323" s="0"/>
-      <c r="C323" s="0"/>
-      <c r="D323" s="0"/>
-      <c r="E323" s="0"/>
-      <c r="F323" s="0"/>
-      <c r="G323" s="0"/>
-      <c r="H323" s="0"/>
-      <c r="I323" s="0"/>
-      <c r="J323" s="0"/>
-      <c r="K323" s="0"/>
-      <c r="L323" s="0"/>
-    </row>
-    <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A324" s="0"/>
-      <c r="B324" s="0"/>
-      <c r="C324" s="0"/>
-      <c r="D324" s="0"/>
-      <c r="E324" s="0"/>
-      <c r="F324" s="0"/>
-      <c r="G324" s="0"/>
-      <c r="H324" s="0"/>
-      <c r="I324" s="0"/>
-      <c r="J324" s="0"/>
-      <c r="K324" s="0"/>
-      <c r="L324" s="0"/>
-    </row>
-    <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A325" s="0"/>
-      <c r="B325" s="0"/>
-      <c r="C325" s="0"/>
-      <c r="D325" s="0"/>
-      <c r="E325" s="0"/>
-      <c r="F325" s="0"/>
-      <c r="G325" s="0"/>
-      <c r="H325" s="0"/>
-      <c r="I325" s="0"/>
-      <c r="J325" s="0"/>
-      <c r="K325" s="0"/>
-      <c r="L325" s="0"/>
-    </row>
-    <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A326" s="0"/>
-      <c r="B326" s="0"/>
-      <c r="C326" s="0"/>
-      <c r="D326" s="0"/>
-      <c r="E326" s="0"/>
-      <c r="F326" s="0"/>
-      <c r="G326" s="0"/>
-      <c r="H326" s="0"/>
-      <c r="I326" s="0"/>
-      <c r="J326" s="0"/>
-      <c r="K326" s="0"/>
-      <c r="L326" s="0"/>
-    </row>
-    <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A327" s="0"/>
-      <c r="B327" s="0"/>
-      <c r="C327" s="0"/>
-      <c r="D327" s="0"/>
-      <c r="E327" s="0"/>
-      <c r="F327" s="0"/>
-      <c r="G327" s="0"/>
-      <c r="H327" s="0"/>
-      <c r="I327" s="0"/>
-      <c r="J327" s="0"/>
-      <c r="K327" s="0"/>
-      <c r="L327" s="0"/>
-    </row>
-    <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A328" s="0"/>
-      <c r="B328" s="0"/>
-      <c r="C328" s="0"/>
-      <c r="D328" s="0"/>
-      <c r="E328" s="0"/>
-      <c r="F328" s="0"/>
-      <c r="G328" s="0"/>
-      <c r="H328" s="0"/>
-      <c r="I328" s="0"/>
-      <c r="J328" s="0"/>
-      <c r="K328" s="0"/>
-      <c r="L328" s="0"/>
-    </row>
-    <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A329" s="0"/>
-      <c r="B329" s="0"/>
-      <c r="C329" s="0"/>
-      <c r="D329" s="0"/>
-      <c r="E329" s="0"/>
-      <c r="F329" s="0"/>
-      <c r="G329" s="0"/>
-      <c r="H329" s="0"/>
-      <c r="I329" s="0"/>
-      <c r="J329" s="0"/>
-      <c r="K329" s="0"/>
-      <c r="L329" s="0"/>
-    </row>
-    <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A330" s="0"/>
-      <c r="B330" s="0"/>
-      <c r="C330" s="0"/>
-      <c r="D330" s="0"/>
-      <c r="E330" s="0"/>
-      <c r="F330" s="0"/>
-      <c r="G330" s="0"/>
-      <c r="H330" s="0"/>
-      <c r="I330" s="0"/>
-      <c r="J330" s="0"/>
-      <c r="K330" s="0"/>
-      <c r="L330" s="0"/>
-    </row>
-    <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A331" s="0"/>
-      <c r="B331" s="0"/>
-      <c r="C331" s="0"/>
-      <c r="D331" s="0"/>
-      <c r="E331" s="0"/>
-      <c r="F331" s="0"/>
-      <c r="G331" s="0"/>
-      <c r="H331" s="0"/>
-      <c r="I331" s="0"/>
-      <c r="J331" s="0"/>
-      <c r="K331" s="0"/>
-      <c r="L331" s="0"/>
-    </row>
-    <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A332" s="0"/>
-      <c r="B332" s="0"/>
-      <c r="C332" s="0"/>
-      <c r="D332" s="0"/>
-      <c r="E332" s="0"/>
-      <c r="F332" s="0"/>
-      <c r="G332" s="0"/>
-      <c r="H332" s="0"/>
-      <c r="I332" s="0"/>
-      <c r="J332" s="0"/>
-      <c r="K332" s="0"/>
-      <c r="L332" s="0"/>
-    </row>
-    <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A333" s="0"/>
-      <c r="B333" s="0"/>
-      <c r="C333" s="0"/>
-      <c r="D333" s="0"/>
-      <c r="E333" s="0"/>
-      <c r="F333" s="0"/>
-      <c r="G333" s="0"/>
-      <c r="H333" s="0"/>
-      <c r="I333" s="0"/>
-      <c r="J333" s="0"/>
-      <c r="K333" s="0"/>
-      <c r="L333" s="0"/>
-    </row>
-    <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A334" s="0"/>
-      <c r="B334" s="0"/>
-      <c r="C334" s="0"/>
-      <c r="D334" s="0"/>
-      <c r="E334" s="0"/>
-      <c r="F334" s="0"/>
-      <c r="G334" s="0"/>
-      <c r="H334" s="0"/>
-      <c r="I334" s="0"/>
-      <c r="J334" s="0"/>
-      <c r="K334" s="0"/>
-      <c r="L334" s="0"/>
-    </row>
-    <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A335" s="0"/>
-      <c r="B335" s="0"/>
-      <c r="C335" s="0"/>
-      <c r="D335" s="0"/>
-      <c r="E335" s="0"/>
-      <c r="F335" s="0"/>
-      <c r="G335" s="0"/>
-      <c r="H335" s="0"/>
-      <c r="I335" s="0"/>
-      <c r="J335" s="0"/>
-      <c r="K335" s="0"/>
-      <c r="L335" s="0"/>
-    </row>
-    <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A336" s="0"/>
-      <c r="B336" s="0"/>
-      <c r="C336" s="0"/>
-      <c r="D336" s="0"/>
-      <c r="E336" s="0"/>
-      <c r="F336" s="0"/>
-      <c r="G336" s="0"/>
-      <c r="H336" s="0"/>
-      <c r="I336" s="0"/>
-      <c r="J336" s="0"/>
-      <c r="K336" s="0"/>
-      <c r="L336" s="0"/>
-    </row>
-    <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="0"/>
-      <c r="B337" s="0"/>
-      <c r="C337" s="0"/>
-      <c r="D337" s="0"/>
-      <c r="E337" s="0"/>
-      <c r="F337" s="0"/>
-      <c r="G337" s="0"/>
-      <c r="H337" s="0"/>
-      <c r="I337" s="0"/>
-      <c r="J337" s="0"/>
-      <c r="K337" s="0"/>
-      <c r="L337" s="0"/>
-    </row>
-    <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A338" s="0"/>
-      <c r="B338" s="0"/>
-      <c r="C338" s="0"/>
-      <c r="D338" s="0"/>
-      <c r="E338" s="0"/>
-      <c r="F338" s="0"/>
-      <c r="G338" s="0"/>
-      <c r="H338" s="0"/>
-      <c r="I338" s="0"/>
-      <c r="J338" s="0"/>
-      <c r="K338" s="0"/>
-      <c r="L338" s="0"/>
-    </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="B3:D3"/>
@@ -24375,7 +21348,7 @@
   </sheetPr>
   <dimension ref="A1:AMG36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -39781,7 +36754,7 @@
       <c r="AMF15" s="0"/>
       <c r="AMG15" s="0"/>
     </row>
-    <row r="16" customFormat="false" ht="96.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="96.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="37" t="s">
         <v>456</v>
       </c>
@@ -39831,7 +36804,7 @@
         <v>43</v>
       </c>
       <c r="G17" s="39" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H17" s="39" t="s">
         <v>43</v>
@@ -40032,16 +37005,16 @@
         <v>482</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>186</v>
+        <v>474</v>
       </c>
       <c r="E24" s="39" t="s">
-        <v>186</v>
+        <v>474</v>
       </c>
       <c r="F24" s="39" t="s">
-        <v>186</v>
+        <v>482</v>
       </c>
       <c r="G24" s="39" t="s">
-        <v>186</v>
+        <v>482</v>
       </c>
       <c r="H24" s="39" t="s">
         <v>186</v>
@@ -40128,10 +37101,10 @@
         <v>491</v>
       </c>
       <c r="F27" s="39" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="G27" s="39" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="H27" s="39" t="s">
         <v>186</v>
@@ -40314,7 +37287,7 @@
         <v>497</v>
       </c>
       <c r="H33" s="39" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="AMD33" s="0"/>
       <c r="AME33" s="0"/>
@@ -40329,19 +37302,19 @@
         <v>39</v>
       </c>
       <c r="C34" s="39" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D34" s="39" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E34" s="39" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F34" s="39" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G34" s="39" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H34" s="39" t="s">
         <v>39</v>
@@ -40383,28 +37356,28 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="37" t="s">
+        <v>499</v>
+      </c>
+      <c r="B36" s="41" t="s">
         <v>500</v>
       </c>
-      <c r="B36" s="41" t="s">
-        <v>501</v>
-      </c>
       <c r="C36" s="41" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D36" s="41" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E36" s="41" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F36" s="41" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G36" s="41" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H36" s="41" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AMD36" s="0"/>
       <c r="AME36" s="0"/>
